--- a/data/CS2/Market Data/CS2_market_data_2030.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C8446-8E93-4316-9A16-1F3123553745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0D1F6B-7EC2-4C65-9548-08E494E1E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2340" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS2/Market Data/CS2_market_data_2030.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0D1F6B-7EC2-4C65-9548-08E494E1E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD866ACE-6E6C-4ADE-B642-4D440D6C8A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="2400" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS2/Market Data/CS2_market_data_2030.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD866ACE-6E6C-4ADE-B642-4D440D6C8A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1226BB86-DDA0-46F6-A2CA-60AFF0BABD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2400" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24870" yWindow="4725" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -168,31 +169,6 @@
             <v>2020</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.02</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
@@ -2434,6 +2410,73 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Energy, Winter"/>
+      <sheetName val="Flexibility, Winter"/>
+      <sheetName val="Secondary Reserve, Winter"/>
+      <sheetName val="Tertiary Reserve Up, Winter"/>
+      <sheetName val="Tertiary Reserve Down, Winter"/>
+      <sheetName val="Energy, Summer"/>
+      <sheetName val="Flexibility, Summer"/>
+      <sheetName val="Secondary Reserve, Summer"/>
+      <sheetName val="Tertiary Reserve Up, Summer"/>
+      <sheetName val="Tertiary Reserve Down, Summer"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.02</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2705,7 +2748,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,8 +2797,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.2189944199947571</v>
+        <f>(1+[2]Main!$B$4)^($B$3-[2]Main!$B$1)</f>
+        <v>1.0511401320407892</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2763,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$5)^($B$3-[2]Main!$B$1)</f>
         <v>1.2189944199947571</v>
       </c>
     </row>
@@ -2772,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$6)^($B$3-[2]Main!$B$1)</f>
         <v>1.2189944199947571</v>
       </c>
     </row>
@@ -2781,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$7)^($B$3-[2]Main!$B$1)</f>
         <v>1.2189944199947571</v>
       </c>
     </row>
@@ -2790,7 +2833,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$8)^($B$3-[2]Main!$B$1)</f>
         <v>1.2189944199947571</v>
       </c>
     </row>
@@ -3787,99 +3830,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>53.282246097970834</v>
+        <v>45.945335171502897</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>49.716687419486163</v>
+        <v>42.870750285283584</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>47.604779586845247</v>
+        <v>41.04965000652291</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>44.642623146257996</v>
+        <v>38.495379485663804</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>45.974374550102269</v>
+        <v>39.64375007991837</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>49.667927642686386</v>
+        <v>42.828704680001962</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>60.090329933641556</v>
+        <v>51.815952808950705</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>62.887922127529521</v>
+        <v>54.228319411984316</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>66.130447284715572</v>
+        <v>57.024352163212811</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>65.627612086467735</v>
+        <v>56.590756858745983</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>64.362905375723187</v>
+        <v>55.500198971753669</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>64.049014312574528</v>
+        <v>55.229530387753158</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>61.568360667885187</v>
+        <v>53.090460219050151</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>60.699827143638935</v>
+        <v>52.341522874971098</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>59.508260098094055</v>
+        <v>51.314033395901227</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>59.627112054043543</v>
+        <v>51.4165195587752</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>60.547452841139588</v>
+        <v>52.210130358465996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>63.540084142226711</v>
+        <v>54.790679382626138</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>66.581475220113646</v>
+        <v>57.413274012067909</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>67.093452876511435</v>
+        <v>57.854752867525043</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>65.545329963118078</v>
+        <v>56.519804899833225</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>61.428176309585794</v>
+        <v>52.969579103865463</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>55.442913707411542</v>
+        <v>47.808481055545194</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>52.038871789576177</v>
+        <v>44.87317223682129</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3888,99 +3931,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>49.759352224185989</v>
+        <v>42.907540189905014</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>46.967855002397989</v>
+        <v>40.50042928753161</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>43.926463924511069</v>
+        <v>37.877834658089832</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>41.963882908319512</v>
+        <v>36.185499045504166</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>44.298257222609479</v>
+        <v>38.198432398362279</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>46.663106397399304</v>
+        <v>40.237644254521413</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>53.879553363768267</v>
+        <v>46.460393836202883</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>56.280972371157937</v>
+        <v>48.531139896323239</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>59.096849481345828</v>
+        <v>50.959273601337465</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>59.493022667844123</v>
+        <v>51.300894144250712</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>57.780335507751495</v>
+        <v>49.824042258733414</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>56.591815948256595</v>
+        <v>48.799180629993636</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>54.860843871864041</v>
+        <v>47.306561642495708</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>54.281821522366535</v>
+        <v>46.807270079776345</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>51.862117598676946</v>
+        <v>44.720756917675374</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>51.453754467978698</v>
+        <v>44.368624973441712</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>52.514279613374136</v>
+        <v>45.283116888317196</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>57.902234949750962</v>
+        <v>49.929156271937487</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>60.620592506339278</v>
+        <v>52.273198766388447</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>61.571408153935188</v>
+        <v>53.093088069380265</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>61.912726591533712</v>
+        <v>53.387407306351683</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>59.163894174445531</v>
+        <v>51.017086308599701</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>53.580899730869547</v>
+        <v>46.202864503852886</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>50.844257257981319</v>
+        <v>43.843054907421319</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3989,99 +4032,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>56.805139971755686</v>
+        <v>48.983130153100774</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>52.465519836574344</v>
+        <v>45.241071283035566</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>51.283095249179432</v>
+        <v>44.221465354956003</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>47.321363384196474</v>
+        <v>40.805259925823435</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>47.650491877595059</v>
+        <v>41.089067761474453</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>52.672748887973455</v>
+        <v>45.419765105482497</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>66.301106503514845</v>
+        <v>57.17151178169852</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>69.494871883901098</v>
+        <v>59.925498927645386</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>73.164045088085331</v>
+        <v>63.089430725088171</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>71.762201505091355</v>
+        <v>61.880619573241255</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>70.945475243694872</v>
+        <v>61.176355684773931</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>71.506212676892446</v>
+        <v>61.659880145512687</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>68.27587746390634</v>
+        <v>58.8743587956046</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>67.117832764911327</v>
+        <v>57.875775670165851</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>67.154402597511179</v>
+        <v>57.90730987412708</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>67.800469640108389</v>
+        <v>58.464414144108687</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>68.580626068905033</v>
+        <v>59.137143828614796</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>69.177933334702459</v>
+        <v>59.652202493314782</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>72.542357933887999</v>
+        <v>62.553349257747364</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>72.615497599087675</v>
+        <v>62.616417665669807</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>69.177933334702459</v>
+        <v>59.652202493314782</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>63.692458444726057</v>
+        <v>54.922071899131232</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>57.30492768395353</v>
+        <v>49.414097607237494</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>53.233486321171043</v>
+        <v>45.903289566221261</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4235,99 +4278,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>63.938695317564999</v>
+        <v>55.134402205803468</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>59.660024903383395</v>
+        <v>51.444900342340297</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>57.125735504214305</v>
+        <v>49.259580007827502</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>53.571147775509594</v>
+        <v>46.194455382796562</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>55.169249460122721</v>
+        <v>47.572500095902036</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>59.601513171223658</v>
+        <v>51.394445616002351</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>72.108395920369844</v>
+        <v>62.179143370740832</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>75.465506553035425</v>
+        <v>65.073983294381179</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>79.356536741658687</v>
+        <v>68.429222595855364</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>78.753134503761274</v>
+        <v>67.908908230495172</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>77.235486450867825</v>
+        <v>66.600238766104411</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>76.858817175089428</v>
+        <v>66.275436465303798</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>73.882032801462216</v>
+        <v>63.708552262860174</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>72.839792572366704</v>
+        <v>62.809827449965304</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>71.409912117712864</v>
+        <v>61.576840075081471</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>71.552534464852243</v>
+        <v>61.699823470530234</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>72.6569434093675</v>
+        <v>62.652156430159188</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>76.248100970672056</v>
+        <v>65.748815259151357</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>79.897770264136355</v>
+        <v>68.895928814481479</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>80.512143451813714</v>
+        <v>69.425703441030038</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>78.654395955741705</v>
+        <v>67.823765879799879</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>73.713811571502958</v>
+        <v>63.563494924638562</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>66.531496448893847</v>
+        <v>57.370177266654224</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>62.446646147491407</v>
+        <v>53.847806684185542</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4336,99 +4379,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>63.938695317564999</v>
+        <v>55.134402205803468</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>59.660024903383395</v>
+        <v>51.444900342340297</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>57.125735504214305</v>
+        <v>49.259580007827502</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>53.571147775509594</v>
+        <v>46.194455382796562</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>55.169249460122721</v>
+        <v>47.572500095902036</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>59.601513171223658</v>
+        <v>51.394445616002351</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>72.108395920369844</v>
+        <v>62.179143370740832</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>75.465506553035425</v>
+        <v>65.073983294381179</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>79.356536741658687</v>
+        <v>68.429222595855364</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>78.753134503761274</v>
+        <v>67.908908230495172</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>77.235486450867825</v>
+        <v>66.600238766104411</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>76.858817175089428</v>
+        <v>66.275436465303798</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>73.882032801462216</v>
+        <v>63.708552262860174</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>72.839792572366704</v>
+        <v>62.809827449965304</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>71.409912117712864</v>
+        <v>61.576840075081471</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>71.552534464852243</v>
+        <v>61.699823470530234</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>72.6569434093675</v>
+        <v>62.652156430159188</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>76.248100970672056</v>
+        <v>65.748815259151357</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>79.897770264136355</v>
+        <v>68.895928814481479</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>80.512143451813714</v>
+        <v>69.425703441030038</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>78.654395955741705</v>
+        <v>67.823765879799879</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>73.713811571502958</v>
+        <v>63.563494924638562</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>66.531496448893847</v>
+        <v>57.370177266654224</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>62.446646147491407</v>
+        <v>53.847806684185542</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4437,99 +4480,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>63.938695317564999</v>
+        <v>55.134402205803468</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>59.660024903383395</v>
+        <v>51.444900342340297</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>57.125735504214305</v>
+        <v>49.259580007827502</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>53.571147775509594</v>
+        <v>46.194455382796562</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>55.169249460122721</v>
+        <v>47.572500095902036</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>59.601513171223658</v>
+        <v>51.394445616002351</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>72.108395920369844</v>
+        <v>62.179143370740832</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>75.465506553035425</v>
+        <v>65.073983294381179</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>79.356536741658687</v>
+        <v>68.429222595855364</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>78.753134503761274</v>
+        <v>67.908908230495172</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>77.235486450867825</v>
+        <v>66.600238766104411</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>76.858817175089428</v>
+        <v>66.275436465303798</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>73.882032801462216</v>
+        <v>63.708552262860174</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>72.839792572366704</v>
+        <v>62.809827449965304</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>71.409912117712864</v>
+        <v>61.576840075081471</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>71.552534464852243</v>
+        <v>61.699823470530234</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>72.6569434093675</v>
+        <v>62.652156430159188</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>76.248100970672056</v>
+        <v>65.748815259151357</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>79.897770264136355</v>
+        <v>68.895928814481479</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>80.512143451813714</v>
+        <v>69.425703441030038</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>78.654395955741705</v>
+        <v>67.823765879799879</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>73.713811571502958</v>
+        <v>63.563494924638562</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>66.531496448893847</v>
+        <v>57.370177266654224</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>62.446646147491407</v>
+        <v>53.847806684185542</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6050,99 +6093,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>45.4319220332046</v>
+        <v>39.175992721160213</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>41.458000224021688</v>
+        <v>35.749275890707239</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>39.702648259229242</v>
+        <v>34.235634100568504</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>38.983441551432335</v>
+        <v>33.615461422664438</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>39.166290714431547</v>
+        <v>33.773132442470555</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>44.33482705520931</v>
+        <v>38.229966602323501</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>46.212078462001237</v>
+        <v>39.848722405666315</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>46.212078462001237</v>
+        <v>39.848722405666315</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>48.56473769259113</v>
+        <v>41.877422860505042</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>48.686637134590597</v>
+        <v>41.982536873709115</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>48.56473769259113</v>
+        <v>41.877422860505042</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>48.771966743990227</v>
+        <v>42.056116682951973</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>48.077139924593219</v>
+        <v>41.456966807688723</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>47.772391319594526</v>
+        <v>41.194181774678526</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>46.772815895198825</v>
+        <v>40.332246866405079</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>45.334402479605011</v>
+        <v>39.091901510596948</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>42.640424811416601</v>
+        <v>36.768881818786802</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>45.553821475204067</v>
+        <v>39.281106734364286</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>47.296983495796574</v>
+        <v>40.784237123182614</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>48.637877357790806</v>
+        <v>41.940491268427486</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>47.589542156595314</v>
+        <v>41.03651075487241</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>48.56473769259113</v>
+        <v>41.877422860505042</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>48.467218138991541</v>
+        <v>41.793331649941777</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>46.492447178600038</v>
+        <v>40.090484636035697</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6151,99 +6194,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>48.369698585391959</v>
+        <v>41.709240439378512</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>42.6648046998165</v>
+        <v>36.789904621427624</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>46.565586843799721</v>
+        <v>40.153553043958148</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>44.980894097806534</v>
+        <v>38.787070872305115</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>45.846380136002814</v>
+        <v>39.533380366054082</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>46.565586843799721</v>
+        <v>40.153553043958148</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>45.35878236800491</v>
+        <v>39.112924313237762</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>48.979195795389337</v>
+        <v>42.234810505398904</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>52.221720952575396</v>
+        <v>45.030843256627413</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>52.453329892374398</v>
+        <v>45.230559881715159</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>52.965307548772202</v>
+        <v>45.672038737172294</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>53.964882973167903</v>
+        <v>46.533973645445741</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>54.818179067164223</v>
+        <v>47.269771737874287</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>56.244402538558091</v>
+        <v>48.49960569236201</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>54.111162303567269</v>
+        <v>46.660110461290628</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>52.428950003974499</v>
+        <v>45.209537079074337</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>52.246100840975288</v>
+        <v>45.051866059268221</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>53.306625986370726</v>
+        <v>45.966357974143705</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>53.599184647169466</v>
+        <v>46.218631605833501</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>54.732849457764594</v>
+        <v>47.196191928631428</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>55.403296388761717</v>
+        <v>47.774319001253872</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>56.256592482758037</v>
+        <v>48.510117093682418</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>54.818179067164223</v>
+        <v>47.269771737874287</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>51.807262849777175</v>
+        <v>44.673455611733537</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6252,99 +6295,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>40.702223683624943</v>
+        <v>35.097569008841951</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>37.569408024238413</v>
+        <v>32.396138869497122</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>35.216748793648534</v>
+        <v>30.367438414658398</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>34.656011360450947</v>
+        <v>29.883913953919635</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>35.850625892045805</v>
+        <v>30.914031283319609</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>41.921218103619701</v>
+        <v>36.148709140882737</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>55.147307560562815</v>
+        <v>47.553579573525305</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>52.319240506174978</v>
+        <v>45.114934467190672</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>54.708469569364702</v>
+        <v>47.175169125990621</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>54.001452805767734</v>
+        <v>46.565507849406956</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>50.051910884984729</v>
+        <v>43.159813821594803</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>48.637877357790806</v>
+        <v>41.940491268427486</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>53.855173475368368</v>
+        <v>46.439371033562061</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>55.074167895363125</v>
+        <v>47.490511165602854</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>54.708469569364702</v>
+        <v>47.175169125990621</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>54.062402526767478</v>
+        <v>46.618064856008999</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>54.062402526767478</v>
+        <v>46.618064856008999</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>54.708469569364702</v>
+        <v>47.175169125990621</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>56.293162315357883</v>
+        <v>48.541651297643639</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>58.365452829348975</v>
+        <v>50.328589522112985</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>62.38813441533167</v>
+        <v>53.797351957847589</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>67.885799249508025</v>
+        <v>58.537993953351545</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>61.88834670313382</v>
+        <v>53.366384503710869</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>54.854748899764068</v>
+        <v>47.301305941835508</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6498,99 +6541,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>53.801537720888604</v>
+        <v>46.393120867752273</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>48.676885179230638</v>
+        <v>41.974127752652784</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>48.593993558671002</v>
+        <v>41.902650223674023</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>47.448138803875928</v>
+        <v>40.914578499555674</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>48.345318696992074</v>
+        <v>41.688217636737704</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>53.128652801051487</v>
+        <v>45.812891514865747</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>58.687267356227593</v>
+        <v>50.606090516971761</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>59.004205905426218</v>
+        <v>50.879386951302351</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>62.197971285812486</v>
+        <v>53.633374097249224</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>62.056567933093085</v>
+        <v>53.511441841932488</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>60.632782450539224</v>
+        <v>52.283710167708854</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>60.549890829979581</v>
+        <v>52.212232638730086</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>62.700196986850329</v>
+        <v>54.066443831650034</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>63.636384701406293</v>
+        <v>54.873719453057348</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>62.23697910725231</v>
+        <v>53.667010581474521</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>60.730302004138785</v>
+        <v>52.367801378272098</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>59.579571271663745</v>
+        <v>51.375525093625612</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>61.427566812375794</v>
+        <v>52.969053533799446</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>62.875732183329561</v>
+        <v>54.217808010663894</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>64.694471857961744</v>
+        <v>55.786109087668756</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>66.152389184275478</v>
+        <v>57.04327268558955</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>69.082851769942877</v>
+        <v>59.570213563015599</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>66.069497563715828</v>
+        <v>56.971795156610767</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>61.261783571256515</v>
+        <v>52.826098475841903</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6599,99 +6642,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>53.801537720888604</v>
+        <v>46.393120867752273</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>48.676885179230638</v>
+        <v>41.974127752652784</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>48.593993558671002</v>
+        <v>41.902650223674023</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>47.448138803875928</v>
+        <v>40.914578499555674</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>48.345318696992074</v>
+        <v>41.688217636737704</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>53.128652801051487</v>
+        <v>45.812891514865747</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>58.687267356227593</v>
+        <v>50.606090516971761</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>59.004205905426218</v>
+        <v>50.879386951302351</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>62.197971285812486</v>
+        <v>53.633374097249224</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>62.056567933093085</v>
+        <v>53.511441841932488</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>60.632782450539224</v>
+        <v>52.283710167708854</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>60.549890829979581</v>
+        <v>52.212232638730086</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>62.700196986850329</v>
+        <v>54.066443831650034</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>63.636384701406293</v>
+        <v>54.873719453057348</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>62.23697910725231</v>
+        <v>53.667010581474521</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>60.730302004138785</v>
+        <v>52.367801378272098</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>59.579571271663745</v>
+        <v>51.375525093625612</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>61.427566812375794</v>
+        <v>52.969053533799446</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>62.875732183329561</v>
+        <v>54.217808010663894</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>64.694471857961744</v>
+        <v>55.786109087668756</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>66.152389184275478</v>
+        <v>57.04327268558955</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>69.082851769942877</v>
+        <v>59.570213563015599</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>66.069497563715828</v>
+        <v>56.971795156610767</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>61.261783571256515</v>
+        <v>52.826098475841903</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6700,99 +6743,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>53.801537720888604</v>
+        <v>46.393120867752273</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>48.676885179230638</v>
+        <v>41.974127752652784</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>48.593993558671002</v>
+        <v>41.902650223674023</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>47.448138803875928</v>
+        <v>40.914578499555674</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>48.345318696992074</v>
+        <v>41.688217636737704</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>53.128652801051487</v>
+        <v>45.812891514865747</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>58.687267356227593</v>
+        <v>50.606090516971761</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>59.004205905426218</v>
+        <v>50.879386951302351</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>62.197971285812486</v>
+        <v>53.633374097249224</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>62.056567933093085</v>
+        <v>53.511441841932488</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>60.632782450539224</v>
+        <v>52.283710167708854</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>60.549890829979581</v>
+        <v>52.212232638730086</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>62.700196986850329</v>
+        <v>54.066443831650034</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>63.636384701406293</v>
+        <v>54.873719453057348</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>62.23697910725231</v>
+        <v>53.667010581474521</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>60.730302004138785</v>
+        <v>52.367801378272098</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>59.579571271663745</v>
+        <v>51.375525093625612</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>61.427566812375794</v>
+        <v>52.969053533799446</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>62.875732183329561</v>
+        <v>54.217808010663894</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>64.694471857961744</v>
+        <v>55.786109087668756</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>66.152389184275478</v>
+        <v>57.04327268558955</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>69.082851769942877</v>
+        <v>59.570213563015599</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>66.069497563715828</v>
+        <v>56.971795156610767</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>61.261783571256515</v>
+        <v>52.826098475841903</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/CS2/Market Data/CS2_market_data_2030.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1226BB86-DDA0-46F6-A2CA-60AFF0BABD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C856E16E-5D36-482F-924A-B54F96830E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24870" yWindow="4725" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24525" yWindow="5070" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -169,2247 +169,42 @@
             <v>2020</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>43.71</v>
-          </cell>
-          <cell r="C2">
-            <v>40.784999999999997</v>
-          </cell>
-          <cell r="D2">
-            <v>39.052499999999995</v>
-          </cell>
-          <cell r="E2">
-            <v>36.622500000000002</v>
-          </cell>
-          <cell r="F2">
-            <v>37.715000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>40.745000000000005</v>
-          </cell>
-          <cell r="H2">
-            <v>49.295000000000002</v>
-          </cell>
-          <cell r="I2">
-            <v>51.59</v>
-          </cell>
-          <cell r="J2">
-            <v>54.25</v>
-          </cell>
-          <cell r="K2">
-            <v>53.837499999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>52.800000000000004</v>
-          </cell>
-          <cell r="M2">
-            <v>52.542499999999997</v>
-          </cell>
-          <cell r="N2">
-            <v>50.507499999999993</v>
-          </cell>
-          <cell r="O2">
-            <v>49.795000000000002</v>
-          </cell>
-          <cell r="P2">
-            <v>48.817500000000003</v>
-          </cell>
-          <cell r="Q2">
-            <v>48.914999999999999</v>
-          </cell>
-          <cell r="R2">
-            <v>49.67</v>
-          </cell>
-          <cell r="S2">
-            <v>52.125</v>
-          </cell>
-          <cell r="T2">
-            <v>54.620000000000005</v>
-          </cell>
-          <cell r="U2">
-            <v>55.040000000000006</v>
-          </cell>
-          <cell r="V2">
-            <v>53.769999999999996</v>
-          </cell>
-          <cell r="W2">
-            <v>50.392499999999998</v>
-          </cell>
-          <cell r="X2">
-            <v>45.482500000000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>42.69</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>40.82</v>
-          </cell>
-          <cell r="C3">
-            <v>38.53</v>
-          </cell>
-          <cell r="D3">
-            <v>36.034999999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>34.424999999999997</v>
-          </cell>
-          <cell r="F3">
-            <v>36.340000000000003</v>
-          </cell>
-          <cell r="G3">
-            <v>38.28</v>
-          </cell>
-          <cell r="H3">
-            <v>44.2</v>
-          </cell>
-          <cell r="I3">
-            <v>46.17</v>
-          </cell>
-          <cell r="J3">
-            <v>48.480000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>48.805</v>
-          </cell>
-          <cell r="L3">
-            <v>47.400000000000006</v>
-          </cell>
-          <cell r="M3">
-            <v>46.424999999999997</v>
-          </cell>
-          <cell r="N3">
-            <v>45.004999999999995</v>
-          </cell>
-          <cell r="O3">
-            <v>44.53</v>
-          </cell>
-          <cell r="P3">
-            <v>42.545000000000002</v>
-          </cell>
-          <cell r="Q3">
-            <v>42.21</v>
-          </cell>
-          <cell r="R3">
-            <v>43.08</v>
-          </cell>
-          <cell r="S3">
-            <v>47.5</v>
-          </cell>
-          <cell r="T3">
-            <v>49.730000000000004</v>
-          </cell>
-          <cell r="U3">
-            <v>50.510000000000005</v>
-          </cell>
-          <cell r="V3">
-            <v>50.79</v>
-          </cell>
-          <cell r="W3">
-            <v>48.534999999999997</v>
-          </cell>
-          <cell r="X3">
-            <v>43.954999999999998</v>
-          </cell>
-          <cell r="Y3">
-            <v>41.71</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="B4">
-            <v>46.6</v>
-          </cell>
-          <cell r="C4">
-            <v>43.04</v>
-          </cell>
-          <cell r="D4">
-            <v>42.07</v>
-          </cell>
-          <cell r="E4">
-            <v>38.82</v>
-          </cell>
-          <cell r="F4">
-            <v>39.090000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>43.21</v>
-          </cell>
-          <cell r="H4">
-            <v>54.39</v>
-          </cell>
-          <cell r="I4">
-            <v>57.01</v>
-          </cell>
-          <cell r="J4">
-            <v>60.02</v>
-          </cell>
-          <cell r="K4">
-            <v>58.87</v>
-          </cell>
-          <cell r="L4">
-            <v>58.2</v>
-          </cell>
-          <cell r="M4">
-            <v>58.66</v>
-          </cell>
-          <cell r="N4">
-            <v>56.01</v>
-          </cell>
-          <cell r="O4">
-            <v>55.06</v>
-          </cell>
-          <cell r="P4">
-            <v>55.09</v>
-          </cell>
-          <cell r="Q4">
-            <v>55.62</v>
-          </cell>
-          <cell r="R4">
-            <v>56.26</v>
-          </cell>
-          <cell r="S4">
-            <v>56.75</v>
-          </cell>
-          <cell r="T4">
-            <v>59.51</v>
-          </cell>
-          <cell r="U4">
-            <v>59.57</v>
-          </cell>
-          <cell r="V4">
-            <v>56.75</v>
-          </cell>
-          <cell r="W4">
-            <v>52.25</v>
-          </cell>
-          <cell r="X4">
-            <v>47.01</v>
-          </cell>
-          <cell r="Y4">
-            <v>43.67</v>
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.02</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C2">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D2">
-            <v>46.863</v>
-          </cell>
-          <cell r="E2">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F2">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H2">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I2">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J2">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K2">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M2">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N2">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O2">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P2">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q2">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R2">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S2">
-            <v>62.55</v>
-          </cell>
-          <cell r="T2">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U2">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V2">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W2">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X2">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y2">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C3">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D3">
-            <v>46.863</v>
-          </cell>
-          <cell r="E3">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F3">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G3">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H3">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I3">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J3">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K3">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L3">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M3">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N3">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O3">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P3">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q3">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R3">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S3">
-            <v>62.55</v>
-          </cell>
-          <cell r="T3">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U3">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V3">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W3">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X3">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y3">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C4">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D4">
-            <v>46.863</v>
-          </cell>
-          <cell r="E4">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F4">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H4">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I4">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J4">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K4">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L4">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M4">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N4">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O4">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P4">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q4">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R4">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S4">
-            <v>62.55</v>
-          </cell>
-          <cell r="T4">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U4">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V4">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X4">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y4">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>25.342275000000001</v>
-          </cell>
-          <cell r="C2">
-            <v>24.594854999999999</v>
-          </cell>
-          <cell r="D2">
-            <v>27.759217499999998</v>
-          </cell>
-          <cell r="E2">
-            <v>30.54975</v>
-          </cell>
-          <cell r="F2">
-            <v>32.125005000000002</v>
-          </cell>
-          <cell r="G2">
-            <v>29.361535</v>
-          </cell>
-          <cell r="H2">
-            <v>27.199200000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>29.454137500000002</v>
-          </cell>
-          <cell r="J2">
-            <v>25.75685</v>
-          </cell>
-          <cell r="K2">
-            <v>23.352209999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>22.9788</v>
-          </cell>
-          <cell r="M2">
-            <v>20.269462499999999</v>
-          </cell>
-          <cell r="N2">
-            <v>22.549799999999994</v>
-          </cell>
-          <cell r="O2">
-            <v>18.743400000000001</v>
-          </cell>
-          <cell r="P2">
-            <v>19.593999999999998</v>
-          </cell>
-          <cell r="Q2">
-            <v>16.172449999999998</v>
-          </cell>
-          <cell r="R2">
-            <v>12.758287500000002</v>
-          </cell>
-          <cell r="S2">
-            <v>14.871139999999999</v>
-          </cell>
-          <cell r="T2">
-            <v>10.08586</v>
-          </cell>
-          <cell r="U2">
-            <v>8.7737250000000007</v>
-          </cell>
-          <cell r="V2">
-            <v>9.8389550000000003</v>
-          </cell>
-          <cell r="W2">
-            <v>13.74175</v>
-          </cell>
-          <cell r="X2">
-            <v>16.117327500000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>14.23521</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>20.34</v>
-          </cell>
-          <cell r="C3">
-            <v>21.39</v>
-          </cell>
-          <cell r="D3">
-            <v>29.287499999999998</v>
-          </cell>
-          <cell r="E3">
-            <v>33.202500000000001</v>
-          </cell>
-          <cell r="F3">
-            <v>36.134999999999998</v>
-          </cell>
-          <cell r="G3">
-            <v>35.917500000000004</v>
-          </cell>
-          <cell r="H3">
-            <v>35.67</v>
-          </cell>
-          <cell r="I3">
-            <v>37.387500000000003</v>
-          </cell>
-          <cell r="J3">
-            <v>34.799999999999997</v>
-          </cell>
-          <cell r="K3">
-            <v>30.075000000000003</v>
-          </cell>
-          <cell r="L3">
-            <v>30.93</v>
-          </cell>
-          <cell r="M3">
-            <v>25.297499999999999</v>
-          </cell>
-          <cell r="N3">
-            <v>28.83</v>
-          </cell>
-          <cell r="O3">
-            <v>21.509999999999998</v>
-          </cell>
-          <cell r="P3">
-            <v>22.65</v>
-          </cell>
-          <cell r="Q3">
-            <v>20.34</v>
-          </cell>
-          <cell r="R3">
-            <v>13.642500000000002</v>
-          </cell>
-          <cell r="S3">
-            <v>17.009999999999998</v>
-          </cell>
-          <cell r="T3">
-            <v>11.115</v>
-          </cell>
-          <cell r="U3">
-            <v>9.75</v>
-          </cell>
-          <cell r="V3">
-            <v>10.8825</v>
-          </cell>
-          <cell r="W3">
-            <v>12.78</v>
-          </cell>
-          <cell r="X3">
-            <v>13.657500000000001</v>
-          </cell>
-          <cell r="Y3">
-            <v>10.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>27.930999999999997</v>
-          </cell>
-          <cell r="C4">
-            <v>26.366999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>27.948</v>
-          </cell>
-          <cell r="E4">
-            <v>27.896999999999998</v>
-          </cell>
-          <cell r="F4">
-            <v>28.764000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>24.003999999999998</v>
-          </cell>
-          <cell r="H4">
-            <v>20.994999999999997</v>
-          </cell>
-          <cell r="I4">
-            <v>19.805</v>
-          </cell>
-          <cell r="J4">
-            <v>17.764999999999997</v>
-          </cell>
-          <cell r="K4">
-            <v>16.166999999999998</v>
-          </cell>
-          <cell r="L4">
-            <v>13.26</v>
-          </cell>
-          <cell r="M4">
-            <v>13.311</v>
-          </cell>
-          <cell r="N4">
-            <v>14.535</v>
-          </cell>
-          <cell r="O4">
-            <v>14.535</v>
-          </cell>
-          <cell r="P4">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>12.664999999999999</v>
-          </cell>
-          <cell r="R4">
-            <v>10.658999999999999</v>
-          </cell>
-          <cell r="S4">
-            <v>11.866</v>
-          </cell>
-          <cell r="T4">
-            <v>8.8569999999999993</v>
-          </cell>
-          <cell r="U4">
-            <v>8.7210000000000001</v>
-          </cell>
-          <cell r="V4">
-            <v>9.1969999999999992</v>
-          </cell>
-          <cell r="W4">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="X4">
-            <v>18.257999999999999</v>
-          </cell>
-          <cell r="Y4">
-            <v>18.257999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>50.01</v>
-          </cell>
-          <cell r="C2">
-            <v>45</v>
-          </cell>
-          <cell r="D2">
-            <v>49</v>
-          </cell>
-          <cell r="E2">
-            <v>37.31</v>
-          </cell>
-          <cell r="F2">
-            <v>37.31</v>
-          </cell>
-          <cell r="G2">
-            <v>48</v>
-          </cell>
-          <cell r="H2">
-            <v>50.01</v>
-          </cell>
-          <cell r="I2">
-            <v>50.01</v>
-          </cell>
-          <cell r="J2">
-            <v>48</v>
-          </cell>
-          <cell r="K2">
-            <v>46.88</v>
-          </cell>
-          <cell r="L2">
-            <v>47.88</v>
-          </cell>
-          <cell r="M2">
-            <v>47.88</v>
-          </cell>
-          <cell r="N2">
-            <v>47.88</v>
-          </cell>
-          <cell r="O2">
-            <v>47.88</v>
-          </cell>
-          <cell r="P2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.88</v>
-          </cell>
-          <cell r="R2">
-            <v>47.88</v>
-          </cell>
-          <cell r="S2">
-            <v>47.88</v>
-          </cell>
-          <cell r="T2">
-            <v>47.88</v>
-          </cell>
-          <cell r="U2">
-            <v>47.88</v>
-          </cell>
-          <cell r="V2">
-            <v>47.88</v>
-          </cell>
-          <cell r="W2">
-            <v>47.88</v>
-          </cell>
-          <cell r="X2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.88</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.67</v>
-          </cell>
-          <cell r="C3">
-            <v>32.44</v>
-          </cell>
-          <cell r="D3">
-            <v>32.44</v>
-          </cell>
-          <cell r="E3">
-            <v>32.44</v>
-          </cell>
-          <cell r="F3">
-            <v>32.44</v>
-          </cell>
-          <cell r="G3">
-            <v>32.44</v>
-          </cell>
-          <cell r="H3">
-            <v>32.44</v>
-          </cell>
-          <cell r="I3">
-            <v>32.44</v>
-          </cell>
-          <cell r="J3">
-            <v>47.67</v>
-          </cell>
-          <cell r="K3">
-            <v>36.44</v>
-          </cell>
-          <cell r="L3">
-            <v>37.44</v>
-          </cell>
-          <cell r="M3">
-            <v>37.44</v>
-          </cell>
-          <cell r="N3">
-            <v>37.44</v>
-          </cell>
-          <cell r="O3">
-            <v>37.44</v>
-          </cell>
-          <cell r="P3">
-            <v>37.44</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.69</v>
-          </cell>
-          <cell r="R3">
-            <v>47.67</v>
-          </cell>
-          <cell r="S3">
-            <v>44.4</v>
-          </cell>
-          <cell r="T3">
-            <v>44.4</v>
-          </cell>
-          <cell r="U3">
-            <v>44.4</v>
-          </cell>
-          <cell r="V3">
-            <v>44.4</v>
-          </cell>
-          <cell r="W3">
-            <v>47.67</v>
-          </cell>
-          <cell r="X3">
-            <v>47.67</v>
-          </cell>
-          <cell r="Y3">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>55</v>
-          </cell>
-          <cell r="C4">
-            <v>56.99</v>
-          </cell>
-          <cell r="D4">
-            <v>56.99</v>
-          </cell>
-          <cell r="E4">
-            <v>55</v>
-          </cell>
-          <cell r="F4">
-            <v>55</v>
-          </cell>
-          <cell r="G4">
-            <v>55</v>
-          </cell>
-          <cell r="H4">
-            <v>56.99</v>
-          </cell>
-          <cell r="I4">
-            <v>56.99</v>
-          </cell>
-          <cell r="J4">
-            <v>55</v>
-          </cell>
-          <cell r="K4">
-            <v>55</v>
-          </cell>
-          <cell r="L4">
-            <v>55</v>
-          </cell>
-          <cell r="M4">
-            <v>55</v>
-          </cell>
-          <cell r="N4">
-            <v>59.95</v>
-          </cell>
-          <cell r="O4">
-            <v>59.95</v>
-          </cell>
-          <cell r="P4">
-            <v>59.95</v>
-          </cell>
-          <cell r="Q4">
-            <v>59.95</v>
-          </cell>
-          <cell r="R4">
-            <v>59.95</v>
-          </cell>
-          <cell r="S4">
-            <v>55</v>
-          </cell>
-          <cell r="T4">
-            <v>55</v>
-          </cell>
-          <cell r="U4">
-            <v>55</v>
-          </cell>
-          <cell r="V4">
-            <v>55</v>
-          </cell>
-          <cell r="W4">
-            <v>55</v>
-          </cell>
-          <cell r="X4">
-            <v>55</v>
-          </cell>
-          <cell r="Y4">
-            <v>55</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>24.97</v>
-          </cell>
-          <cell r="C2">
-            <v>24.97</v>
-          </cell>
-          <cell r="D2">
-            <v>24.97</v>
-          </cell>
-          <cell r="E2">
-            <v>25.97</v>
-          </cell>
-          <cell r="F2">
-            <v>25.97</v>
-          </cell>
-          <cell r="G2">
-            <v>24.97</v>
-          </cell>
-          <cell r="H2">
-            <v>29.75</v>
-          </cell>
-          <cell r="I2">
-            <v>29.75</v>
-          </cell>
-          <cell r="J2">
-            <v>24.97</v>
-          </cell>
-          <cell r="K2">
-            <v>29.75</v>
-          </cell>
-          <cell r="L2">
-            <v>24.97</v>
-          </cell>
-          <cell r="M2">
-            <v>24.97</v>
-          </cell>
-          <cell r="N2">
-            <v>24.97</v>
-          </cell>
-          <cell r="O2">
-            <v>25.01</v>
-          </cell>
-          <cell r="P2">
-            <v>24.97</v>
-          </cell>
-          <cell r="Q2">
-            <v>24.97</v>
-          </cell>
-          <cell r="R2">
-            <v>29.75</v>
-          </cell>
-          <cell r="S2">
-            <v>29.75</v>
-          </cell>
-          <cell r="T2">
-            <v>29.75</v>
-          </cell>
-          <cell r="U2">
-            <v>29.75</v>
-          </cell>
-          <cell r="V2">
-            <v>29.75</v>
-          </cell>
-          <cell r="W2">
-            <v>29.75</v>
-          </cell>
-          <cell r="X2">
-            <v>29.75</v>
-          </cell>
-          <cell r="Y2">
-            <v>29.75</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>28.36</v>
-          </cell>
-          <cell r="C3">
-            <v>28.36</v>
-          </cell>
-          <cell r="D3">
-            <v>27.234999999999999</v>
-          </cell>
-          <cell r="E3">
-            <v>28.86</v>
-          </cell>
-          <cell r="F3">
-            <v>28.86</v>
-          </cell>
-          <cell r="G3">
-            <v>28.36</v>
-          </cell>
-          <cell r="H3">
-            <v>37.325000000000003</v>
-          </cell>
-          <cell r="I3">
-            <v>30.75</v>
-          </cell>
-          <cell r="J3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>34.879999999999995</v>
-          </cell>
-          <cell r="L3">
-            <v>32.489999999999995</v>
-          </cell>
-          <cell r="M3">
-            <v>32.489999999999995</v>
-          </cell>
-          <cell r="N3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="O3">
-            <v>32.5</v>
-          </cell>
-          <cell r="P3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="Q3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="R3">
-            <v>34.885000000000005</v>
-          </cell>
-          <cell r="S3">
-            <v>36.875</v>
-          </cell>
-          <cell r="T3">
-            <v>36.875</v>
-          </cell>
-          <cell r="U3">
-            <v>36.875</v>
-          </cell>
-          <cell r="V3">
-            <v>36.875</v>
-          </cell>
-          <cell r="W3">
-            <v>35.370000000000005</v>
-          </cell>
-          <cell r="X3">
-            <v>30.75</v>
-          </cell>
-          <cell r="Y3">
-            <v>30.75</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31.75</v>
-          </cell>
-          <cell r="C4">
-            <v>31.75</v>
-          </cell>
-          <cell r="D4">
-            <v>29.5</v>
-          </cell>
-          <cell r="E4">
-            <v>31.75</v>
-          </cell>
-          <cell r="F4">
-            <v>31.75</v>
-          </cell>
-          <cell r="G4">
-            <v>31.75</v>
-          </cell>
-          <cell r="H4">
-            <v>44.9</v>
-          </cell>
-          <cell r="I4">
-            <v>31.75</v>
-          </cell>
-          <cell r="J4">
-            <v>39.99</v>
-          </cell>
-          <cell r="K4">
-            <v>40.01</v>
-          </cell>
-          <cell r="L4">
-            <v>40.01</v>
-          </cell>
-          <cell r="M4">
-            <v>40.01</v>
-          </cell>
-          <cell r="N4">
-            <v>39.99</v>
-          </cell>
-          <cell r="O4">
-            <v>39.99</v>
-          </cell>
-          <cell r="P4">
-            <v>39.99</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.99</v>
-          </cell>
-          <cell r="R4">
-            <v>40.020000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>44</v>
-          </cell>
-          <cell r="T4">
-            <v>44</v>
-          </cell>
-          <cell r="U4">
-            <v>44</v>
-          </cell>
-          <cell r="V4">
-            <v>44</v>
-          </cell>
-          <cell r="W4">
-            <v>40.99</v>
-          </cell>
-          <cell r="X4">
-            <v>31.75</v>
-          </cell>
-          <cell r="Y4">
-            <v>31.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="B2">
-            <v>37.270000000000003</v>
-          </cell>
-          <cell r="C2">
-            <v>34.01</v>
-          </cell>
-          <cell r="D2">
-            <v>32.57</v>
-          </cell>
-          <cell r="E2">
-            <v>31.98</v>
-          </cell>
-          <cell r="F2">
-            <v>32.130000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>36.369999999999997</v>
-          </cell>
-          <cell r="H2">
-            <v>37.909999999999997</v>
-          </cell>
-          <cell r="I2">
-            <v>37.909999999999997</v>
-          </cell>
-          <cell r="J2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="K2">
-            <v>39.94</v>
-          </cell>
-          <cell r="L2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="M2">
-            <v>40.01</v>
-          </cell>
-          <cell r="N2">
-            <v>39.44</v>
-          </cell>
-          <cell r="O2">
-            <v>39.19</v>
-          </cell>
-          <cell r="P2">
-            <v>38.369999999999997</v>
-          </cell>
-          <cell r="Q2">
-            <v>37.19</v>
-          </cell>
-          <cell r="R2">
-            <v>34.979999999999997</v>
-          </cell>
-          <cell r="S2">
-            <v>37.369999999999997</v>
-          </cell>
-          <cell r="T2">
-            <v>38.799999999999997</v>
-          </cell>
-          <cell r="U2">
-            <v>39.9</v>
-          </cell>
-          <cell r="V2">
-            <v>39.04</v>
-          </cell>
-          <cell r="W2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="X2">
-            <v>39.76</v>
-          </cell>
-          <cell r="Y2">
-            <v>38.14</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>39.68</v>
-          </cell>
-          <cell r="C3">
-            <v>35</v>
-          </cell>
-          <cell r="D3">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="E3">
-            <v>36.9</v>
-          </cell>
-          <cell r="F3">
-            <v>37.61</v>
-          </cell>
-          <cell r="G3">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="H3">
-            <v>37.21</v>
-          </cell>
-          <cell r="I3">
-            <v>40.18</v>
-          </cell>
-          <cell r="J3">
-            <v>42.84</v>
-          </cell>
-          <cell r="K3">
-            <v>43.03</v>
-          </cell>
-          <cell r="L3">
-            <v>43.45</v>
-          </cell>
-          <cell r="M3">
-            <v>44.27</v>
-          </cell>
-          <cell r="N3">
-            <v>44.97</v>
-          </cell>
-          <cell r="O3">
-            <v>46.14</v>
-          </cell>
-          <cell r="P3">
-            <v>44.39</v>
-          </cell>
-          <cell r="Q3">
-            <v>43.01</v>
-          </cell>
-          <cell r="R3">
-            <v>42.86</v>
-          </cell>
-          <cell r="S3">
-            <v>43.73</v>
-          </cell>
-          <cell r="T3">
-            <v>43.97</v>
-          </cell>
-          <cell r="U3">
-            <v>44.9</v>
-          </cell>
-          <cell r="V3">
-            <v>45.45</v>
-          </cell>
-          <cell r="W3">
-            <v>46.15</v>
-          </cell>
-          <cell r="X3">
-            <v>44.97</v>
-          </cell>
-          <cell r="Y3">
-            <v>42.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>33.39</v>
-          </cell>
-          <cell r="C4">
-            <v>30.82</v>
-          </cell>
-          <cell r="D4">
-            <v>28.89</v>
-          </cell>
-          <cell r="E4">
-            <v>28.43</v>
-          </cell>
-          <cell r="F4">
-            <v>29.41</v>
-          </cell>
-          <cell r="G4">
-            <v>34.39</v>
-          </cell>
-          <cell r="H4">
-            <v>45.24</v>
-          </cell>
-          <cell r="I4">
-            <v>42.92</v>
-          </cell>
-          <cell r="J4">
-            <v>44.88</v>
-          </cell>
-          <cell r="K4">
-            <v>44.3</v>
-          </cell>
-          <cell r="L4">
-            <v>41.06</v>
-          </cell>
-          <cell r="M4">
-            <v>39.9</v>
-          </cell>
-          <cell r="N4">
-            <v>44.18</v>
-          </cell>
-          <cell r="O4">
-            <v>45.18</v>
-          </cell>
-          <cell r="P4">
-            <v>44.88</v>
-          </cell>
-          <cell r="Q4">
-            <v>44.35</v>
-          </cell>
-          <cell r="R4">
-            <v>44.35</v>
-          </cell>
-          <cell r="S4">
-            <v>44.88</v>
-          </cell>
-          <cell r="T4">
-            <v>46.18</v>
-          </cell>
-          <cell r="U4">
-            <v>47.88</v>
-          </cell>
-          <cell r="V4">
-            <v>51.18</v>
-          </cell>
-          <cell r="W4">
-            <v>55.69</v>
-          </cell>
-          <cell r="X4">
-            <v>50.77</v>
-          </cell>
-          <cell r="Y4">
-            <v>45</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C2">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D2">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E2">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F2">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G2">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H2">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I2">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J2">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K2">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L2">
-            <v>49.74</v>
-          </cell>
-          <cell r="M2">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N2">
-            <v>51.436</v>
-          </cell>
-          <cell r="O2">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P2">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q2">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R2">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S2">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T2">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U2">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W2">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X2">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y2">
-            <v>50.256</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C3">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D3">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E3">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F3">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G3">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H3">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I3">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J3">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K3">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L3">
-            <v>49.74</v>
-          </cell>
-          <cell r="M3">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N3">
-            <v>51.436</v>
-          </cell>
-          <cell r="O3">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P3">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q3">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R3">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S3">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T3">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U3">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V3">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W3">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X3">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y3">
-            <v>50.256</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C4">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D4">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E4">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F4">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G4">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H4">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I4">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J4">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K4">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L4">
-            <v>49.74</v>
-          </cell>
-          <cell r="M4">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N4">
-            <v>51.436</v>
-          </cell>
-          <cell r="O4">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P4">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R4">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S4">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T4">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U4">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V4">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X4">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y4">
-            <v>50.256</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="B2">
-            <v>10.26</v>
-          </cell>
-          <cell r="C2">
-            <v>10.909500000000001</v>
-          </cell>
-          <cell r="D2">
-            <v>10.084849999999999</v>
-          </cell>
-          <cell r="E2">
-            <v>8.7750000000000004</v>
-          </cell>
-          <cell r="F2">
-            <v>7.9588000000000001</v>
-          </cell>
-          <cell r="G2">
-            <v>6.3310499999999994</v>
-          </cell>
-          <cell r="H2">
-            <v>5.706900000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>4.8929999999999998</v>
-          </cell>
-          <cell r="J2">
-            <v>4.0228999999999999</v>
-          </cell>
-          <cell r="K2">
-            <v>4.4879999999999995</v>
-          </cell>
-          <cell r="L2">
-            <v>4.2223500000000005</v>
-          </cell>
-          <cell r="M2">
-            <v>4.0441500000000001</v>
-          </cell>
-          <cell r="N2">
-            <v>3.6749999999999998</v>
-          </cell>
-          <cell r="O2">
-            <v>4.1912000000000003</v>
-          </cell>
-          <cell r="P2">
-            <v>4.4894500000000006</v>
-          </cell>
-          <cell r="Q2">
-            <v>3.9945499999999998</v>
-          </cell>
-          <cell r="R2">
-            <v>2.9760000000000004</v>
-          </cell>
-          <cell r="S2">
-            <v>2.5608</v>
-          </cell>
-          <cell r="T2">
-            <v>3.0141000000000004</v>
-          </cell>
-          <cell r="U2">
-            <v>2.2196999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>3.6414</v>
-          </cell>
-          <cell r="W2">
-            <v>6.7825499999999996</v>
-          </cell>
-          <cell r="X2">
-            <v>7.5711999999999993</v>
-          </cell>
-          <cell r="Y2">
-            <v>6.9015499999999994</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>8</v>
-          </cell>
-          <cell r="C3">
-            <v>7.99</v>
-          </cell>
-          <cell r="D3">
-            <v>7.76</v>
-          </cell>
-          <cell r="E3">
-            <v>8</v>
-          </cell>
-          <cell r="F3">
-            <v>11</v>
-          </cell>
-          <cell r="G3">
-            <v>8.5299999999999994</v>
-          </cell>
-          <cell r="H3">
-            <v>6.44</v>
-          </cell>
-          <cell r="I3">
-            <v>4.71</v>
-          </cell>
-          <cell r="J3">
-            <v>4.67</v>
-          </cell>
-          <cell r="K3">
-            <v>5.66</v>
-          </cell>
-          <cell r="L3">
-            <v>4.79</v>
-          </cell>
-          <cell r="M3">
-            <v>5.08</v>
-          </cell>
-          <cell r="N3">
-            <v>4.07</v>
-          </cell>
-          <cell r="O3">
-            <v>4.4400000000000004</v>
-          </cell>
-          <cell r="P3">
-            <v>5.27</v>
-          </cell>
-          <cell r="Q3">
-            <v>4.63</v>
-          </cell>
-          <cell r="R3">
-            <v>4.41</v>
-          </cell>
-          <cell r="S3">
-            <v>3.49</v>
-          </cell>
-          <cell r="T3">
-            <v>4.4400000000000004</v>
-          </cell>
-          <cell r="U3">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="V3">
-            <v>4.97</v>
-          </cell>
-          <cell r="W3">
-            <v>8.57</v>
-          </cell>
-          <cell r="X3">
-            <v>8.25</v>
-          </cell>
-          <cell r="Y3">
-            <v>6.83</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>12.52</v>
-          </cell>
-          <cell r="C4">
-            <v>12.79</v>
-          </cell>
-          <cell r="D4">
-            <v>12.21</v>
-          </cell>
-          <cell r="E4">
-            <v>9.5500000000000007</v>
-          </cell>
-          <cell r="F4">
-            <v>4.76</v>
-          </cell>
-          <cell r="G4">
-            <v>4.26</v>
-          </cell>
-          <cell r="H4">
-            <v>4.75</v>
-          </cell>
-          <cell r="I4">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="J4">
-            <v>3.54</v>
-          </cell>
-          <cell r="K4">
-            <v>3.69</v>
-          </cell>
-          <cell r="L4">
-            <v>3.74</v>
-          </cell>
-          <cell r="M4">
-            <v>3.09</v>
-          </cell>
-          <cell r="N4">
-            <v>3.43</v>
-          </cell>
-          <cell r="O4">
-            <v>3.62</v>
-          </cell>
-          <cell r="P4">
-            <v>3.62</v>
-          </cell>
-          <cell r="Q4">
-            <v>3.28</v>
-          </cell>
-          <cell r="R4">
-            <v>1.79</v>
-          </cell>
-          <cell r="S4">
-            <v>1.79</v>
-          </cell>
-          <cell r="T4">
-            <v>1.47</v>
-          </cell>
-          <cell r="U4">
-            <v>2.23</v>
-          </cell>
-          <cell r="V4">
-            <v>2.17</v>
-          </cell>
-          <cell r="W4">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="X4">
-            <v>6.31</v>
-          </cell>
-          <cell r="Y4">
-            <v>7.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
-            <v>42.153333333333336</v>
-          </cell>
-          <cell r="C2">
-            <v>42.486666666666672</v>
-          </cell>
-          <cell r="D2">
-            <v>42.486666666666672</v>
-          </cell>
-          <cell r="E2">
-            <v>51.303333333333335</v>
-          </cell>
-          <cell r="F2">
-            <v>44.726666666666667</v>
-          </cell>
-          <cell r="G2">
-            <v>53.636666666666677</v>
-          </cell>
-          <cell r="H2">
-            <v>52.483333333333327</v>
-          </cell>
-          <cell r="I2">
-            <v>40.266666666666673</v>
-          </cell>
-          <cell r="J2">
-            <v>40.466666666666669</v>
-          </cell>
-          <cell r="K2">
-            <v>59.133333333333333</v>
-          </cell>
-          <cell r="L2">
-            <v>40.833333333333336</v>
-          </cell>
-          <cell r="M2">
-            <v>40.833333333333336</v>
-          </cell>
-          <cell r="N2">
-            <v>59.5</v>
-          </cell>
-          <cell r="O2">
-            <v>59.5</v>
-          </cell>
-          <cell r="P2">
-            <v>44.09</v>
-          </cell>
-          <cell r="Q2">
-            <v>40.800000000000004</v>
-          </cell>
-          <cell r="R2">
-            <v>40.800000000000004</v>
-          </cell>
-          <cell r="S2">
-            <v>41.06666666666667</v>
-          </cell>
-          <cell r="T2">
-            <v>40.866666666666667</v>
-          </cell>
-          <cell r="U2">
-            <v>44.09</v>
-          </cell>
-          <cell r="V2">
-            <v>40.6</v>
-          </cell>
-          <cell r="W2">
-            <v>45.860000000000007</v>
-          </cell>
-          <cell r="X2">
-            <v>37.6</v>
-          </cell>
-          <cell r="Y2">
-            <v>37.6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>36.216666666666669</v>
-          </cell>
-          <cell r="C3">
-            <v>36.88333333333334</v>
-          </cell>
-          <cell r="D3">
-            <v>36.88333333333334</v>
-          </cell>
-          <cell r="E3">
-            <v>45.351666666666667</v>
-          </cell>
-          <cell r="F3">
-            <v>40.36333333333333</v>
-          </cell>
-          <cell r="G3">
-            <v>61.338333333333338</v>
-          </cell>
-          <cell r="H3">
-            <v>60.76166666666667</v>
-          </cell>
-          <cell r="I3">
-            <v>39.833333333333336</v>
-          </cell>
-          <cell r="J3">
-            <v>40.233333333333334</v>
-          </cell>
-          <cell r="K3">
-            <v>49.266666666666666</v>
-          </cell>
-          <cell r="L3">
-            <v>40.116666666666667</v>
-          </cell>
-          <cell r="M3">
-            <v>40.116666666666667</v>
-          </cell>
-          <cell r="N3">
-            <v>49.45</v>
-          </cell>
-          <cell r="O3">
-            <v>49.45</v>
-          </cell>
-          <cell r="P3">
-            <v>41.745000000000005</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.1</v>
-          </cell>
-          <cell r="R3">
-            <v>40.400000000000006</v>
-          </cell>
-          <cell r="S3">
-            <v>40.63333333333334</v>
-          </cell>
-          <cell r="T3">
-            <v>40.533333333333331</v>
-          </cell>
-          <cell r="U3">
-            <v>41.745000000000005</v>
-          </cell>
-          <cell r="V3">
-            <v>40</v>
-          </cell>
-          <cell r="W3">
-            <v>42.63</v>
-          </cell>
-          <cell r="X3">
-            <v>38.799999999999997</v>
-          </cell>
-          <cell r="Y3">
-            <v>38.799999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>30.28</v>
-          </cell>
-          <cell r="C4">
-            <v>31.28</v>
-          </cell>
-          <cell r="D4">
-            <v>31.28</v>
-          </cell>
-          <cell r="E4">
-            <v>39.4</v>
-          </cell>
-          <cell r="F4">
-            <v>36</v>
-          </cell>
-          <cell r="G4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="H4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="I4">
-            <v>39.4</v>
-          </cell>
-          <cell r="J4">
-            <v>40</v>
-          </cell>
-          <cell r="K4">
-            <v>39.4</v>
-          </cell>
-          <cell r="L4">
-            <v>39.4</v>
-          </cell>
-          <cell r="M4">
-            <v>39.4</v>
-          </cell>
-          <cell r="N4">
-            <v>39.4</v>
-          </cell>
-          <cell r="O4">
-            <v>39.4</v>
-          </cell>
-          <cell r="P4">
-            <v>39.4</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.4</v>
-          </cell>
-          <cell r="R4">
-            <v>40</v>
-          </cell>
-          <cell r="S4">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="T4">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="U4">
-            <v>39.4</v>
-          </cell>
-          <cell r="V4">
-            <v>39.4</v>
-          </cell>
-          <cell r="W4">
-            <v>39.4</v>
-          </cell>
-          <cell r="X4">
-            <v>40</v>
-          </cell>
-          <cell r="Y4">
-            <v>40</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>24.09</v>
-          </cell>
-          <cell r="C2">
-            <v>24.09</v>
-          </cell>
-          <cell r="D2">
-            <v>24.09</v>
-          </cell>
-          <cell r="E2">
-            <v>24.09</v>
-          </cell>
-          <cell r="F2">
-            <v>29.04</v>
-          </cell>
-          <cell r="G2">
-            <v>29.03</v>
-          </cell>
-          <cell r="H2">
-            <v>29.05</v>
-          </cell>
-          <cell r="I2">
-            <v>29.04</v>
-          </cell>
-          <cell r="J2">
-            <v>29.04</v>
-          </cell>
-          <cell r="K2">
-            <v>29.05</v>
-          </cell>
-          <cell r="L2">
-            <v>32</v>
-          </cell>
-          <cell r="M2">
-            <v>29.03</v>
-          </cell>
-          <cell r="N2">
-            <v>29.03</v>
-          </cell>
-          <cell r="O2">
-            <v>29.03</v>
-          </cell>
-          <cell r="P2">
-            <v>32</v>
-          </cell>
-          <cell r="Q2">
-            <v>29.01</v>
-          </cell>
-          <cell r="R2">
-            <v>32</v>
-          </cell>
-          <cell r="S2">
-            <v>29.01</v>
-          </cell>
-          <cell r="T2">
-            <v>29.01</v>
-          </cell>
-          <cell r="U2">
-            <v>29.01</v>
-          </cell>
-          <cell r="V2">
-            <v>29.01</v>
-          </cell>
-          <cell r="W2">
-            <v>29.01</v>
-          </cell>
-          <cell r="X2">
-            <v>29.01</v>
-          </cell>
-          <cell r="Y2">
-            <v>27.98</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="C3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="D3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="F3">
-            <v>31.63</v>
-          </cell>
-          <cell r="G3">
-            <v>23.537500000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>29.28</v>
-          </cell>
-          <cell r="I3">
-            <v>26.9175</v>
-          </cell>
-          <cell r="J3">
-            <v>26.9175</v>
-          </cell>
-          <cell r="K3">
-            <v>30.950000000000003</v>
-          </cell>
-          <cell r="L3">
-            <v>33.162500000000001</v>
-          </cell>
-          <cell r="M3">
-            <v>30.935000000000002</v>
-          </cell>
-          <cell r="N3">
-            <v>29.265000000000001</v>
-          </cell>
-          <cell r="O3">
-            <v>29.265000000000001</v>
-          </cell>
-          <cell r="P3">
-            <v>31.4925</v>
-          </cell>
-          <cell r="Q3">
-            <v>30.92</v>
-          </cell>
-          <cell r="R3">
-            <v>33.162500000000001</v>
-          </cell>
-          <cell r="S3">
-            <v>30.92</v>
-          </cell>
-          <cell r="T3">
-            <v>30.92</v>
-          </cell>
-          <cell r="U3">
-            <v>30.92</v>
-          </cell>
-          <cell r="V3">
-            <v>30.92</v>
-          </cell>
-          <cell r="W3">
-            <v>29.25</v>
-          </cell>
-          <cell r="X3">
-            <v>28.305</v>
-          </cell>
-          <cell r="Y3">
-            <v>27.532499999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="C4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="F4">
-            <v>34.22</v>
-          </cell>
-          <cell r="G4">
-            <v>18.045000000000002</v>
-          </cell>
-          <cell r="H4">
-            <v>29.509999999999998</v>
-          </cell>
-          <cell r="I4">
-            <v>24.795000000000002</v>
-          </cell>
-          <cell r="J4">
-            <v>24.795000000000002</v>
-          </cell>
-          <cell r="K4">
-            <v>32.85</v>
-          </cell>
-          <cell r="L4">
-            <v>34.325000000000003</v>
-          </cell>
-          <cell r="M4">
-            <v>32.840000000000003</v>
-          </cell>
-          <cell r="N4">
-            <v>29.5</v>
-          </cell>
-          <cell r="O4">
-            <v>29.5</v>
-          </cell>
-          <cell r="P4">
-            <v>30.984999999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>32.83</v>
-          </cell>
-          <cell r="R4">
-            <v>34.325000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>32.83</v>
-          </cell>
-          <cell r="T4">
-            <v>32.83</v>
-          </cell>
-          <cell r="U4">
-            <v>32.83</v>
-          </cell>
-          <cell r="V4">
-            <v>32.83</v>
-          </cell>
-          <cell r="W4">
-            <v>29.490000000000002</v>
-          </cell>
-          <cell r="X4">
-            <v>27.6</v>
-          </cell>
-          <cell r="Y4">
-            <v>27.085000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2435,48 +230,2247 @@
       <sheetName val="Tertiary Reserve Down, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>2020</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>43.71</v>
+          </cell>
+          <cell r="C2">
+            <v>40.784999999999997</v>
+          </cell>
+          <cell r="D2">
+            <v>39.052499999999995</v>
+          </cell>
+          <cell r="E2">
+            <v>36.622500000000002</v>
+          </cell>
+          <cell r="F2">
+            <v>37.715000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>40.745000000000005</v>
+          </cell>
+          <cell r="H2">
+            <v>49.295000000000002</v>
+          </cell>
+          <cell r="I2">
+            <v>51.59</v>
+          </cell>
+          <cell r="J2">
+            <v>54.25</v>
+          </cell>
+          <cell r="K2">
+            <v>53.837499999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>52.800000000000004</v>
+          </cell>
+          <cell r="M2">
+            <v>52.542499999999997</v>
+          </cell>
+          <cell r="N2">
+            <v>50.507499999999993</v>
+          </cell>
+          <cell r="O2">
+            <v>49.795000000000002</v>
+          </cell>
+          <cell r="P2">
+            <v>48.817500000000003</v>
+          </cell>
+          <cell r="Q2">
+            <v>48.914999999999999</v>
+          </cell>
+          <cell r="R2">
+            <v>49.67</v>
+          </cell>
+          <cell r="S2">
+            <v>52.125</v>
+          </cell>
+          <cell r="T2">
+            <v>54.620000000000005</v>
+          </cell>
+          <cell r="U2">
+            <v>55.040000000000006</v>
+          </cell>
+          <cell r="V2">
+            <v>53.769999999999996</v>
+          </cell>
+          <cell r="W2">
+            <v>50.392499999999998</v>
+          </cell>
+          <cell r="X2">
+            <v>45.482500000000002</v>
+          </cell>
+          <cell r="Y2">
+            <v>42.69</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>40.82</v>
+          </cell>
+          <cell r="C3">
+            <v>38.53</v>
+          </cell>
+          <cell r="D3">
+            <v>36.034999999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>34.424999999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>36.340000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>38.28</v>
+          </cell>
+          <cell r="H3">
+            <v>44.2</v>
+          </cell>
+          <cell r="I3">
+            <v>46.17</v>
+          </cell>
+          <cell r="J3">
+            <v>48.480000000000004</v>
+          </cell>
+          <cell r="K3">
+            <v>48.805</v>
+          </cell>
+          <cell r="L3">
+            <v>47.400000000000006</v>
+          </cell>
+          <cell r="M3">
+            <v>46.424999999999997</v>
+          </cell>
+          <cell r="N3">
+            <v>45.004999999999995</v>
+          </cell>
+          <cell r="O3">
+            <v>44.53</v>
+          </cell>
+          <cell r="P3">
+            <v>42.545000000000002</v>
+          </cell>
+          <cell r="Q3">
+            <v>42.21</v>
+          </cell>
+          <cell r="R3">
+            <v>43.08</v>
+          </cell>
+          <cell r="S3">
+            <v>47.5</v>
+          </cell>
+          <cell r="T3">
+            <v>49.730000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>50.510000000000005</v>
+          </cell>
+          <cell r="V3">
+            <v>50.79</v>
+          </cell>
+          <cell r="W3">
+            <v>48.534999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>43.954999999999998</v>
+          </cell>
+          <cell r="Y3">
+            <v>41.71</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.02</v>
+            <v>46.6</v>
+          </cell>
+          <cell r="C4">
+            <v>43.04</v>
+          </cell>
+          <cell r="D4">
+            <v>42.07</v>
+          </cell>
+          <cell r="E4">
+            <v>38.82</v>
+          </cell>
+          <cell r="F4">
+            <v>39.090000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>43.21</v>
+          </cell>
+          <cell r="H4">
+            <v>54.39</v>
+          </cell>
+          <cell r="I4">
+            <v>57.01</v>
+          </cell>
+          <cell r="J4">
+            <v>60.02</v>
+          </cell>
+          <cell r="K4">
+            <v>58.87</v>
+          </cell>
+          <cell r="L4">
+            <v>58.2</v>
+          </cell>
+          <cell r="M4">
+            <v>58.66</v>
+          </cell>
+          <cell r="N4">
+            <v>56.01</v>
+          </cell>
+          <cell r="O4">
+            <v>55.06</v>
+          </cell>
+          <cell r="P4">
+            <v>55.09</v>
+          </cell>
+          <cell r="Q4">
+            <v>55.62</v>
+          </cell>
+          <cell r="R4">
+            <v>56.26</v>
+          </cell>
+          <cell r="S4">
+            <v>56.75</v>
+          </cell>
+          <cell r="T4">
+            <v>59.51</v>
+          </cell>
+          <cell r="U4">
+            <v>59.57</v>
+          </cell>
+          <cell r="V4">
+            <v>56.75</v>
+          </cell>
+          <cell r="W4">
+            <v>52.25</v>
+          </cell>
+          <cell r="X4">
+            <v>47.01</v>
+          </cell>
+          <cell r="Y4">
+            <v>43.67</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C2">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D2">
+            <v>46.863</v>
+          </cell>
+          <cell r="E2">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F2">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H2">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I2">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J2">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K2">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M2">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N2">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O2">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P2">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q2">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R2">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S2">
+            <v>62.55</v>
+          </cell>
+          <cell r="T2">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U2">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V2">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X2">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y2">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C3">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D3">
+            <v>46.863</v>
+          </cell>
+          <cell r="E3">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F3">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H3">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I3">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J3">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K3">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L3">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M3">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N3">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O3">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P3">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q3">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R3">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S3">
+            <v>62.55</v>
+          </cell>
+          <cell r="T3">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U3">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V3">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X3">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y3">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C4">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D4">
+            <v>46.863</v>
+          </cell>
+          <cell r="E4">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F4">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H4">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I4">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J4">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K4">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L4">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M4">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N4">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O4">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P4">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q4">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R4">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S4">
+            <v>62.55</v>
+          </cell>
+          <cell r="T4">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U4">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V4">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X4">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y4">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>25.342275000000001</v>
+          </cell>
+          <cell r="C2">
+            <v>24.594854999999999</v>
+          </cell>
+          <cell r="D2">
+            <v>27.759217499999998</v>
+          </cell>
+          <cell r="E2">
+            <v>30.54975</v>
+          </cell>
+          <cell r="F2">
+            <v>32.125005000000002</v>
+          </cell>
+          <cell r="G2">
+            <v>29.361535</v>
+          </cell>
+          <cell r="H2">
+            <v>27.199200000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>29.454137500000002</v>
+          </cell>
+          <cell r="J2">
+            <v>25.75685</v>
+          </cell>
+          <cell r="K2">
+            <v>23.352209999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>22.9788</v>
+          </cell>
+          <cell r="M2">
+            <v>20.269462499999999</v>
+          </cell>
+          <cell r="N2">
+            <v>22.549799999999994</v>
+          </cell>
+          <cell r="O2">
+            <v>18.743400000000001</v>
+          </cell>
+          <cell r="P2">
+            <v>19.593999999999998</v>
+          </cell>
+          <cell r="Q2">
+            <v>16.172449999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>12.758287500000002</v>
+          </cell>
+          <cell r="S2">
+            <v>14.871139999999999</v>
+          </cell>
+          <cell r="T2">
+            <v>10.08586</v>
+          </cell>
+          <cell r="U2">
+            <v>8.7737250000000007</v>
+          </cell>
+          <cell r="V2">
+            <v>9.8389550000000003</v>
+          </cell>
+          <cell r="W2">
+            <v>13.74175</v>
+          </cell>
+          <cell r="X2">
+            <v>16.117327500000002</v>
+          </cell>
+          <cell r="Y2">
+            <v>14.23521</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>20.34</v>
+          </cell>
+          <cell r="C3">
+            <v>21.39</v>
+          </cell>
+          <cell r="D3">
+            <v>29.287499999999998</v>
+          </cell>
+          <cell r="E3">
+            <v>33.202500000000001</v>
+          </cell>
+          <cell r="F3">
+            <v>36.134999999999998</v>
+          </cell>
+          <cell r="G3">
+            <v>35.917500000000004</v>
+          </cell>
+          <cell r="H3">
+            <v>35.67</v>
+          </cell>
+          <cell r="I3">
+            <v>37.387500000000003</v>
+          </cell>
+          <cell r="J3">
+            <v>34.799999999999997</v>
+          </cell>
+          <cell r="K3">
+            <v>30.075000000000003</v>
+          </cell>
+          <cell r="L3">
+            <v>30.93</v>
+          </cell>
+          <cell r="M3">
+            <v>25.297499999999999</v>
+          </cell>
+          <cell r="N3">
+            <v>28.83</v>
+          </cell>
+          <cell r="O3">
+            <v>21.509999999999998</v>
+          </cell>
+          <cell r="P3">
+            <v>22.65</v>
+          </cell>
+          <cell r="Q3">
+            <v>20.34</v>
+          </cell>
+          <cell r="R3">
+            <v>13.642500000000002</v>
+          </cell>
+          <cell r="S3">
+            <v>17.009999999999998</v>
+          </cell>
+          <cell r="T3">
+            <v>11.115</v>
+          </cell>
+          <cell r="U3">
+            <v>9.75</v>
+          </cell>
+          <cell r="V3">
+            <v>10.8825</v>
+          </cell>
+          <cell r="W3">
+            <v>12.78</v>
+          </cell>
+          <cell r="X3">
+            <v>13.657500000000001</v>
+          </cell>
+          <cell r="Y3">
+            <v>10.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>27.930999999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>26.366999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>27.948</v>
+          </cell>
+          <cell r="E4">
+            <v>27.896999999999998</v>
+          </cell>
+          <cell r="F4">
+            <v>28.764000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>24.003999999999998</v>
+          </cell>
+          <cell r="H4">
+            <v>20.994999999999997</v>
+          </cell>
+          <cell r="I4">
+            <v>19.805</v>
+          </cell>
+          <cell r="J4">
+            <v>17.764999999999997</v>
+          </cell>
+          <cell r="K4">
+            <v>16.166999999999998</v>
+          </cell>
+          <cell r="L4">
+            <v>13.26</v>
+          </cell>
+          <cell r="M4">
+            <v>13.311</v>
+          </cell>
+          <cell r="N4">
+            <v>14.535</v>
+          </cell>
+          <cell r="O4">
+            <v>14.535</v>
+          </cell>
+          <cell r="P4">
+            <v>16.149999999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>12.664999999999999</v>
+          </cell>
+          <cell r="R4">
+            <v>10.658999999999999</v>
+          </cell>
+          <cell r="S4">
+            <v>11.866</v>
+          </cell>
+          <cell r="T4">
+            <v>8.8569999999999993</v>
+          </cell>
+          <cell r="U4">
+            <v>8.7210000000000001</v>
+          </cell>
+          <cell r="V4">
+            <v>9.1969999999999992</v>
+          </cell>
+          <cell r="W4">
+            <v>16.149999999999999</v>
+          </cell>
+          <cell r="X4">
+            <v>18.257999999999999</v>
+          </cell>
+          <cell r="Y4">
+            <v>18.257999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>50.01</v>
+          </cell>
+          <cell r="C2">
+            <v>45</v>
+          </cell>
+          <cell r="D2">
+            <v>49</v>
+          </cell>
+          <cell r="E2">
+            <v>37.31</v>
+          </cell>
+          <cell r="F2">
+            <v>37.31</v>
+          </cell>
+          <cell r="G2">
+            <v>48</v>
+          </cell>
+          <cell r="H2">
+            <v>50.01</v>
+          </cell>
+          <cell r="I2">
+            <v>50.01</v>
+          </cell>
+          <cell r="J2">
+            <v>48</v>
+          </cell>
+          <cell r="K2">
+            <v>46.88</v>
+          </cell>
+          <cell r="L2">
+            <v>47.88</v>
+          </cell>
+          <cell r="M2">
+            <v>47.88</v>
+          </cell>
+          <cell r="N2">
+            <v>47.88</v>
+          </cell>
+          <cell r="O2">
+            <v>47.88</v>
+          </cell>
+          <cell r="P2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Q2">
+            <v>47.88</v>
+          </cell>
+          <cell r="R2">
+            <v>47.88</v>
+          </cell>
+          <cell r="S2">
+            <v>47.88</v>
+          </cell>
+          <cell r="T2">
+            <v>47.88</v>
+          </cell>
+          <cell r="U2">
+            <v>47.88</v>
+          </cell>
+          <cell r="V2">
+            <v>47.88</v>
+          </cell>
+          <cell r="W2">
+            <v>47.88</v>
+          </cell>
+          <cell r="X2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Y2">
+            <v>47.88</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>47.67</v>
+          </cell>
+          <cell r="C3">
+            <v>32.44</v>
+          </cell>
+          <cell r="D3">
+            <v>32.44</v>
+          </cell>
+          <cell r="E3">
+            <v>32.44</v>
+          </cell>
+          <cell r="F3">
+            <v>32.44</v>
+          </cell>
+          <cell r="G3">
+            <v>32.44</v>
+          </cell>
+          <cell r="H3">
+            <v>32.44</v>
+          </cell>
+          <cell r="I3">
+            <v>32.44</v>
+          </cell>
+          <cell r="J3">
+            <v>47.67</v>
+          </cell>
+          <cell r="K3">
+            <v>36.44</v>
+          </cell>
+          <cell r="L3">
+            <v>37.44</v>
+          </cell>
+          <cell r="M3">
+            <v>37.44</v>
+          </cell>
+          <cell r="N3">
+            <v>37.44</v>
+          </cell>
+          <cell r="O3">
+            <v>37.44</v>
+          </cell>
+          <cell r="P3">
+            <v>37.44</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.69</v>
+          </cell>
+          <cell r="R3">
+            <v>47.67</v>
+          </cell>
+          <cell r="S3">
+            <v>44.4</v>
+          </cell>
+          <cell r="T3">
+            <v>44.4</v>
+          </cell>
+          <cell r="U3">
+            <v>44.4</v>
+          </cell>
+          <cell r="V3">
+            <v>44.4</v>
+          </cell>
+          <cell r="W3">
+            <v>47.67</v>
+          </cell>
+          <cell r="X3">
+            <v>47.67</v>
+          </cell>
+          <cell r="Y3">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>55</v>
+          </cell>
+          <cell r="C4">
+            <v>56.99</v>
+          </cell>
+          <cell r="D4">
+            <v>56.99</v>
+          </cell>
+          <cell r="E4">
+            <v>55</v>
+          </cell>
+          <cell r="F4">
+            <v>55</v>
+          </cell>
+          <cell r="G4">
+            <v>55</v>
+          </cell>
+          <cell r="H4">
+            <v>56.99</v>
+          </cell>
+          <cell r="I4">
+            <v>56.99</v>
+          </cell>
+          <cell r="J4">
+            <v>55</v>
+          </cell>
+          <cell r="K4">
+            <v>55</v>
+          </cell>
+          <cell r="L4">
+            <v>55</v>
+          </cell>
+          <cell r="M4">
+            <v>55</v>
+          </cell>
+          <cell r="N4">
+            <v>59.95</v>
+          </cell>
+          <cell r="O4">
+            <v>59.95</v>
+          </cell>
+          <cell r="P4">
+            <v>59.95</v>
+          </cell>
+          <cell r="Q4">
+            <v>59.95</v>
+          </cell>
+          <cell r="R4">
+            <v>59.95</v>
+          </cell>
+          <cell r="S4">
+            <v>55</v>
+          </cell>
+          <cell r="T4">
+            <v>55</v>
+          </cell>
+          <cell r="U4">
+            <v>55</v>
+          </cell>
+          <cell r="V4">
+            <v>55</v>
+          </cell>
+          <cell r="W4">
+            <v>55</v>
+          </cell>
+          <cell r="X4">
+            <v>55</v>
+          </cell>
+          <cell r="Y4">
+            <v>55</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>24.97</v>
+          </cell>
+          <cell r="C2">
+            <v>24.97</v>
+          </cell>
+          <cell r="D2">
+            <v>24.97</v>
+          </cell>
+          <cell r="E2">
+            <v>25.97</v>
+          </cell>
+          <cell r="F2">
+            <v>25.97</v>
+          </cell>
+          <cell r="G2">
+            <v>24.97</v>
+          </cell>
+          <cell r="H2">
+            <v>29.75</v>
+          </cell>
+          <cell r="I2">
+            <v>29.75</v>
+          </cell>
+          <cell r="J2">
+            <v>24.97</v>
+          </cell>
+          <cell r="K2">
+            <v>29.75</v>
+          </cell>
+          <cell r="L2">
+            <v>24.97</v>
+          </cell>
+          <cell r="M2">
+            <v>24.97</v>
+          </cell>
+          <cell r="N2">
+            <v>24.97</v>
+          </cell>
+          <cell r="O2">
+            <v>25.01</v>
+          </cell>
+          <cell r="P2">
+            <v>24.97</v>
+          </cell>
+          <cell r="Q2">
+            <v>24.97</v>
+          </cell>
+          <cell r="R2">
+            <v>29.75</v>
+          </cell>
+          <cell r="S2">
+            <v>29.75</v>
+          </cell>
+          <cell r="T2">
+            <v>29.75</v>
+          </cell>
+          <cell r="U2">
+            <v>29.75</v>
+          </cell>
+          <cell r="V2">
+            <v>29.75</v>
+          </cell>
+          <cell r="W2">
+            <v>29.75</v>
+          </cell>
+          <cell r="X2">
+            <v>29.75</v>
+          </cell>
+          <cell r="Y2">
+            <v>29.75</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>28.36</v>
+          </cell>
+          <cell r="C3">
+            <v>28.36</v>
+          </cell>
+          <cell r="D3">
+            <v>27.234999999999999</v>
+          </cell>
+          <cell r="E3">
+            <v>28.86</v>
+          </cell>
+          <cell r="F3">
+            <v>28.86</v>
+          </cell>
+          <cell r="G3">
+            <v>28.36</v>
+          </cell>
+          <cell r="H3">
+            <v>37.325000000000003</v>
+          </cell>
+          <cell r="I3">
+            <v>30.75</v>
+          </cell>
+          <cell r="J3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="K3">
+            <v>34.879999999999995</v>
+          </cell>
+          <cell r="L3">
+            <v>32.489999999999995</v>
+          </cell>
+          <cell r="M3">
+            <v>32.489999999999995</v>
+          </cell>
+          <cell r="N3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="O3">
+            <v>32.5</v>
+          </cell>
+          <cell r="P3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="Q3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="R3">
+            <v>34.885000000000005</v>
+          </cell>
+          <cell r="S3">
+            <v>36.875</v>
+          </cell>
+          <cell r="T3">
+            <v>36.875</v>
+          </cell>
+          <cell r="U3">
+            <v>36.875</v>
+          </cell>
+          <cell r="V3">
+            <v>36.875</v>
+          </cell>
+          <cell r="W3">
+            <v>35.370000000000005</v>
+          </cell>
+          <cell r="X3">
+            <v>30.75</v>
+          </cell>
+          <cell r="Y3">
+            <v>30.75</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31.75</v>
+          </cell>
+          <cell r="C4">
+            <v>31.75</v>
+          </cell>
+          <cell r="D4">
+            <v>29.5</v>
+          </cell>
+          <cell r="E4">
+            <v>31.75</v>
+          </cell>
+          <cell r="F4">
+            <v>31.75</v>
+          </cell>
+          <cell r="G4">
+            <v>31.75</v>
+          </cell>
+          <cell r="H4">
+            <v>44.9</v>
+          </cell>
+          <cell r="I4">
+            <v>31.75</v>
+          </cell>
+          <cell r="J4">
+            <v>39.99</v>
+          </cell>
+          <cell r="K4">
+            <v>40.01</v>
+          </cell>
+          <cell r="L4">
+            <v>40.01</v>
+          </cell>
+          <cell r="M4">
+            <v>40.01</v>
+          </cell>
+          <cell r="N4">
+            <v>39.99</v>
+          </cell>
+          <cell r="O4">
+            <v>39.99</v>
+          </cell>
+          <cell r="P4">
+            <v>39.99</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.99</v>
+          </cell>
+          <cell r="R4">
+            <v>40.020000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>44</v>
+          </cell>
+          <cell r="T4">
+            <v>44</v>
+          </cell>
+          <cell r="U4">
+            <v>44</v>
+          </cell>
+          <cell r="V4">
+            <v>44</v>
+          </cell>
+          <cell r="W4">
+            <v>40.99</v>
+          </cell>
+          <cell r="X4">
+            <v>31.75</v>
+          </cell>
+          <cell r="Y4">
+            <v>31.75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>37.270000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>34.01</v>
+          </cell>
+          <cell r="D2">
+            <v>32.57</v>
+          </cell>
+          <cell r="E2">
+            <v>31.98</v>
+          </cell>
+          <cell r="F2">
+            <v>32.130000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>36.369999999999997</v>
+          </cell>
+          <cell r="H2">
+            <v>37.909999999999997</v>
+          </cell>
+          <cell r="I2">
+            <v>37.909999999999997</v>
+          </cell>
+          <cell r="J2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="K2">
+            <v>39.94</v>
+          </cell>
+          <cell r="L2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="M2">
+            <v>40.01</v>
+          </cell>
+          <cell r="N2">
+            <v>39.44</v>
+          </cell>
+          <cell r="O2">
+            <v>39.19</v>
+          </cell>
+          <cell r="P2">
+            <v>38.369999999999997</v>
+          </cell>
+          <cell r="Q2">
+            <v>37.19</v>
+          </cell>
+          <cell r="R2">
+            <v>34.979999999999997</v>
+          </cell>
+          <cell r="S2">
+            <v>37.369999999999997</v>
+          </cell>
+          <cell r="T2">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="U2">
+            <v>39.9</v>
+          </cell>
+          <cell r="V2">
+            <v>39.04</v>
+          </cell>
+          <cell r="W2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="X2">
+            <v>39.76</v>
+          </cell>
+          <cell r="Y2">
+            <v>38.14</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>39.68</v>
+          </cell>
+          <cell r="C3">
+            <v>35</v>
+          </cell>
+          <cell r="D3">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="E3">
+            <v>36.9</v>
+          </cell>
+          <cell r="F3">
+            <v>37.61</v>
+          </cell>
+          <cell r="G3">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="H3">
+            <v>37.21</v>
+          </cell>
+          <cell r="I3">
+            <v>40.18</v>
+          </cell>
+          <cell r="J3">
+            <v>42.84</v>
+          </cell>
+          <cell r="K3">
+            <v>43.03</v>
+          </cell>
+          <cell r="L3">
+            <v>43.45</v>
+          </cell>
+          <cell r="M3">
+            <v>44.27</v>
+          </cell>
+          <cell r="N3">
+            <v>44.97</v>
+          </cell>
+          <cell r="O3">
+            <v>46.14</v>
+          </cell>
+          <cell r="P3">
+            <v>44.39</v>
+          </cell>
+          <cell r="Q3">
+            <v>43.01</v>
+          </cell>
+          <cell r="R3">
+            <v>42.86</v>
+          </cell>
+          <cell r="S3">
+            <v>43.73</v>
+          </cell>
+          <cell r="T3">
+            <v>43.97</v>
+          </cell>
+          <cell r="U3">
+            <v>44.9</v>
+          </cell>
+          <cell r="V3">
+            <v>45.45</v>
+          </cell>
+          <cell r="W3">
+            <v>46.15</v>
+          </cell>
+          <cell r="X3">
+            <v>44.97</v>
+          </cell>
+          <cell r="Y3">
+            <v>42.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>33.39</v>
+          </cell>
+          <cell r="C4">
+            <v>30.82</v>
+          </cell>
+          <cell r="D4">
+            <v>28.89</v>
+          </cell>
+          <cell r="E4">
+            <v>28.43</v>
+          </cell>
+          <cell r="F4">
+            <v>29.41</v>
+          </cell>
+          <cell r="G4">
+            <v>34.39</v>
+          </cell>
+          <cell r="H4">
+            <v>45.24</v>
+          </cell>
+          <cell r="I4">
+            <v>42.92</v>
+          </cell>
+          <cell r="J4">
+            <v>44.88</v>
+          </cell>
+          <cell r="K4">
+            <v>44.3</v>
+          </cell>
+          <cell r="L4">
+            <v>41.06</v>
+          </cell>
+          <cell r="M4">
+            <v>39.9</v>
+          </cell>
+          <cell r="N4">
+            <v>44.18</v>
+          </cell>
+          <cell r="O4">
+            <v>45.18</v>
+          </cell>
+          <cell r="P4">
+            <v>44.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>44.35</v>
+          </cell>
+          <cell r="R4">
+            <v>44.35</v>
+          </cell>
+          <cell r="S4">
+            <v>44.88</v>
+          </cell>
+          <cell r="T4">
+            <v>46.18</v>
+          </cell>
+          <cell r="U4">
+            <v>47.88</v>
+          </cell>
+          <cell r="V4">
+            <v>51.18</v>
+          </cell>
+          <cell r="W4">
+            <v>55.69</v>
+          </cell>
+          <cell r="X4">
+            <v>50.77</v>
+          </cell>
+          <cell r="Y4">
+            <v>45</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D2">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E2">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F2">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G2">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H2">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I2">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J2">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K2">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L2">
+            <v>49.74</v>
+          </cell>
+          <cell r="M2">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N2">
+            <v>51.436</v>
+          </cell>
+          <cell r="O2">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P2">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q2">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R2">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S2">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T2">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U2">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X2">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y2">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C3">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D3">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E3">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F3">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G3">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H3">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I3">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J3">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K3">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L3">
+            <v>49.74</v>
+          </cell>
+          <cell r="M3">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N3">
+            <v>51.436</v>
+          </cell>
+          <cell r="O3">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P3">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q3">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R3">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S3">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T3">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U3">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V3">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y3">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C4">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D4">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E4">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F4">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G4">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H4">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I4">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J4">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K4">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L4">
+            <v>49.74</v>
+          </cell>
+          <cell r="M4">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>51.436</v>
+          </cell>
+          <cell r="O4">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P4">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R4">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S4">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T4">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U4">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V4">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X4">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y4">
+            <v>50.256</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>10.26</v>
+          </cell>
+          <cell r="C2">
+            <v>10.909500000000001</v>
+          </cell>
+          <cell r="D2">
+            <v>10.084849999999999</v>
+          </cell>
+          <cell r="E2">
+            <v>8.7750000000000004</v>
+          </cell>
+          <cell r="F2">
+            <v>7.9588000000000001</v>
+          </cell>
+          <cell r="G2">
+            <v>6.3310499999999994</v>
+          </cell>
+          <cell r="H2">
+            <v>5.706900000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>4.8929999999999998</v>
+          </cell>
+          <cell r="J2">
+            <v>4.0228999999999999</v>
+          </cell>
+          <cell r="K2">
+            <v>4.4879999999999995</v>
+          </cell>
+          <cell r="L2">
+            <v>4.2223500000000005</v>
+          </cell>
+          <cell r="M2">
+            <v>4.0441500000000001</v>
+          </cell>
+          <cell r="N2">
+            <v>3.6749999999999998</v>
+          </cell>
+          <cell r="O2">
+            <v>4.1912000000000003</v>
+          </cell>
+          <cell r="P2">
+            <v>4.4894500000000006</v>
+          </cell>
+          <cell r="Q2">
+            <v>3.9945499999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>2.9760000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>2.5608</v>
+          </cell>
+          <cell r="T2">
+            <v>3.0141000000000004</v>
+          </cell>
+          <cell r="U2">
+            <v>2.2196999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>3.6414</v>
+          </cell>
+          <cell r="W2">
+            <v>6.7825499999999996</v>
+          </cell>
+          <cell r="X2">
+            <v>7.5711999999999993</v>
+          </cell>
+          <cell r="Y2">
+            <v>6.9015499999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>8</v>
+          </cell>
+          <cell r="C3">
+            <v>7.99</v>
+          </cell>
+          <cell r="D3">
+            <v>7.76</v>
+          </cell>
+          <cell r="E3">
+            <v>8</v>
+          </cell>
+          <cell r="F3">
+            <v>11</v>
+          </cell>
+          <cell r="G3">
+            <v>8.5299999999999994</v>
+          </cell>
+          <cell r="H3">
+            <v>6.44</v>
+          </cell>
+          <cell r="I3">
+            <v>4.71</v>
+          </cell>
+          <cell r="J3">
+            <v>4.67</v>
+          </cell>
+          <cell r="K3">
+            <v>5.66</v>
+          </cell>
+          <cell r="L3">
+            <v>4.79</v>
+          </cell>
+          <cell r="M3">
+            <v>5.08</v>
+          </cell>
+          <cell r="N3">
+            <v>4.07</v>
+          </cell>
+          <cell r="O3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="P3">
+            <v>5.27</v>
+          </cell>
+          <cell r="Q3">
+            <v>4.63</v>
+          </cell>
+          <cell r="R3">
+            <v>4.41</v>
+          </cell>
+          <cell r="S3">
+            <v>3.49</v>
+          </cell>
+          <cell r="T3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="V3">
+            <v>4.97</v>
+          </cell>
+          <cell r="W3">
+            <v>8.57</v>
+          </cell>
+          <cell r="X3">
+            <v>8.25</v>
+          </cell>
+          <cell r="Y3">
+            <v>6.83</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>12.52</v>
+          </cell>
+          <cell r="C4">
+            <v>12.79</v>
+          </cell>
+          <cell r="D4">
+            <v>12.21</v>
+          </cell>
+          <cell r="E4">
+            <v>9.5500000000000007</v>
+          </cell>
+          <cell r="F4">
+            <v>4.76</v>
+          </cell>
+          <cell r="G4">
+            <v>4.26</v>
+          </cell>
+          <cell r="H4">
+            <v>4.75</v>
+          </cell>
+          <cell r="I4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="J4">
+            <v>3.54</v>
+          </cell>
+          <cell r="K4">
+            <v>3.69</v>
+          </cell>
+          <cell r="L4">
+            <v>3.74</v>
+          </cell>
+          <cell r="M4">
+            <v>3.09</v>
+          </cell>
+          <cell r="N4">
+            <v>3.43</v>
+          </cell>
+          <cell r="O4">
+            <v>3.62</v>
+          </cell>
+          <cell r="P4">
+            <v>3.62</v>
+          </cell>
+          <cell r="Q4">
+            <v>3.28</v>
+          </cell>
+          <cell r="R4">
+            <v>1.79</v>
+          </cell>
+          <cell r="S4">
+            <v>1.79</v>
+          </cell>
+          <cell r="T4">
+            <v>1.47</v>
+          </cell>
+          <cell r="U4">
+            <v>2.23</v>
+          </cell>
+          <cell r="V4">
+            <v>2.17</v>
+          </cell>
+          <cell r="W4">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="X4">
+            <v>6.31</v>
+          </cell>
+          <cell r="Y4">
+            <v>7.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
+            <v>42.153333333333336</v>
+          </cell>
+          <cell r="C2">
+            <v>42.486666666666672</v>
+          </cell>
+          <cell r="D2">
+            <v>42.486666666666672</v>
+          </cell>
+          <cell r="E2">
+            <v>51.303333333333335</v>
+          </cell>
+          <cell r="F2">
+            <v>44.726666666666667</v>
+          </cell>
+          <cell r="G2">
+            <v>53.636666666666677</v>
+          </cell>
+          <cell r="H2">
+            <v>52.483333333333327</v>
+          </cell>
+          <cell r="I2">
+            <v>40.266666666666673</v>
+          </cell>
+          <cell r="J2">
+            <v>40.466666666666669</v>
+          </cell>
+          <cell r="K2">
+            <v>59.133333333333333</v>
+          </cell>
+          <cell r="L2">
+            <v>40.833333333333336</v>
+          </cell>
+          <cell r="M2">
+            <v>40.833333333333336</v>
+          </cell>
+          <cell r="N2">
+            <v>59.5</v>
+          </cell>
+          <cell r="O2">
+            <v>59.5</v>
+          </cell>
+          <cell r="P2">
+            <v>44.09</v>
+          </cell>
+          <cell r="Q2">
+            <v>40.800000000000004</v>
+          </cell>
+          <cell r="R2">
+            <v>40.800000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>41.06666666666667</v>
+          </cell>
+          <cell r="T2">
+            <v>40.866666666666667</v>
+          </cell>
+          <cell r="U2">
+            <v>44.09</v>
+          </cell>
+          <cell r="V2">
+            <v>40.6</v>
+          </cell>
+          <cell r="W2">
+            <v>45.860000000000007</v>
+          </cell>
+          <cell r="X2">
+            <v>37.6</v>
+          </cell>
+          <cell r="Y2">
+            <v>37.6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>36.216666666666669</v>
+          </cell>
+          <cell r="C3">
+            <v>36.88333333333334</v>
+          </cell>
+          <cell r="D3">
+            <v>36.88333333333334</v>
+          </cell>
+          <cell r="E3">
+            <v>45.351666666666667</v>
+          </cell>
+          <cell r="F3">
+            <v>40.36333333333333</v>
+          </cell>
+          <cell r="G3">
+            <v>61.338333333333338</v>
+          </cell>
+          <cell r="H3">
+            <v>60.76166666666667</v>
+          </cell>
+          <cell r="I3">
+            <v>39.833333333333336</v>
+          </cell>
+          <cell r="J3">
+            <v>40.233333333333334</v>
+          </cell>
+          <cell r="K3">
+            <v>49.266666666666666</v>
+          </cell>
+          <cell r="L3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="M3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="N3">
+            <v>49.45</v>
+          </cell>
+          <cell r="O3">
+            <v>49.45</v>
+          </cell>
+          <cell r="P3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.1</v>
+          </cell>
+          <cell r="R3">
+            <v>40.400000000000006</v>
+          </cell>
+          <cell r="S3">
+            <v>40.63333333333334</v>
+          </cell>
+          <cell r="T3">
+            <v>40.533333333333331</v>
+          </cell>
+          <cell r="U3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="V3">
+            <v>40</v>
+          </cell>
+          <cell r="W3">
+            <v>42.63</v>
+          </cell>
+          <cell r="X3">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="Y3">
+            <v>38.799999999999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>30.28</v>
+          </cell>
+          <cell r="C4">
+            <v>31.28</v>
+          </cell>
+          <cell r="D4">
+            <v>31.28</v>
+          </cell>
+          <cell r="E4">
+            <v>39.4</v>
+          </cell>
+          <cell r="F4">
+            <v>36</v>
+          </cell>
+          <cell r="G4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="H4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="I4">
+            <v>39.4</v>
+          </cell>
+          <cell r="J4">
+            <v>40</v>
+          </cell>
+          <cell r="K4">
+            <v>39.4</v>
+          </cell>
+          <cell r="L4">
+            <v>39.4</v>
+          </cell>
+          <cell r="M4">
+            <v>39.4</v>
+          </cell>
+          <cell r="N4">
+            <v>39.4</v>
+          </cell>
+          <cell r="O4">
+            <v>39.4</v>
+          </cell>
+          <cell r="P4">
+            <v>39.4</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.4</v>
+          </cell>
+          <cell r="R4">
+            <v>40</v>
+          </cell>
+          <cell r="S4">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="T4">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="U4">
+            <v>39.4</v>
+          </cell>
+          <cell r="V4">
+            <v>39.4</v>
+          </cell>
+          <cell r="W4">
+            <v>39.4</v>
+          </cell>
+          <cell r="X4">
+            <v>40</v>
+          </cell>
+          <cell r="Y4">
+            <v>40</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="B2">
+            <v>24.09</v>
+          </cell>
+          <cell r="C2">
+            <v>24.09</v>
+          </cell>
+          <cell r="D2">
+            <v>24.09</v>
+          </cell>
+          <cell r="E2">
+            <v>24.09</v>
+          </cell>
+          <cell r="F2">
+            <v>29.04</v>
+          </cell>
+          <cell r="G2">
+            <v>29.03</v>
+          </cell>
+          <cell r="H2">
+            <v>29.05</v>
+          </cell>
+          <cell r="I2">
+            <v>29.04</v>
+          </cell>
+          <cell r="J2">
+            <v>29.04</v>
+          </cell>
+          <cell r="K2">
+            <v>29.05</v>
+          </cell>
+          <cell r="L2">
+            <v>32</v>
+          </cell>
+          <cell r="M2">
+            <v>29.03</v>
+          </cell>
+          <cell r="N2">
+            <v>29.03</v>
+          </cell>
+          <cell r="O2">
+            <v>29.03</v>
+          </cell>
+          <cell r="P2">
+            <v>32</v>
+          </cell>
+          <cell r="Q2">
+            <v>29.01</v>
+          </cell>
+          <cell r="R2">
+            <v>32</v>
+          </cell>
+          <cell r="S2">
+            <v>29.01</v>
+          </cell>
+          <cell r="T2">
+            <v>29.01</v>
+          </cell>
+          <cell r="U2">
+            <v>29.01</v>
+          </cell>
+          <cell r="V2">
+            <v>29.01</v>
+          </cell>
+          <cell r="W2">
+            <v>29.01</v>
+          </cell>
+          <cell r="X2">
+            <v>29.01</v>
+          </cell>
+          <cell r="Y2">
+            <v>27.98</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="C3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="D3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>31.63</v>
+          </cell>
+          <cell r="G3">
+            <v>23.537500000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>29.28</v>
+          </cell>
+          <cell r="I3">
+            <v>26.9175</v>
+          </cell>
+          <cell r="J3">
+            <v>26.9175</v>
+          </cell>
+          <cell r="K3">
+            <v>30.950000000000003</v>
+          </cell>
+          <cell r="L3">
+            <v>33.162500000000001</v>
+          </cell>
+          <cell r="M3">
+            <v>30.935000000000002</v>
+          </cell>
+          <cell r="N3">
+            <v>29.265000000000001</v>
+          </cell>
+          <cell r="O3">
+            <v>29.265000000000001</v>
+          </cell>
+          <cell r="P3">
+            <v>31.4925</v>
+          </cell>
+          <cell r="Q3">
+            <v>30.92</v>
+          </cell>
+          <cell r="R3">
+            <v>33.162500000000001</v>
+          </cell>
+          <cell r="S3">
+            <v>30.92</v>
+          </cell>
+          <cell r="T3">
+            <v>30.92</v>
+          </cell>
+          <cell r="U3">
+            <v>30.92</v>
+          </cell>
+          <cell r="V3">
+            <v>30.92</v>
+          </cell>
+          <cell r="W3">
+            <v>29.25</v>
+          </cell>
+          <cell r="X3">
+            <v>28.305</v>
+          </cell>
+          <cell r="Y3">
+            <v>27.532499999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="E4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="F4">
+            <v>34.22</v>
+          </cell>
+          <cell r="G4">
+            <v>18.045000000000002</v>
+          </cell>
+          <cell r="H4">
+            <v>29.509999999999998</v>
+          </cell>
+          <cell r="I4">
+            <v>24.795000000000002</v>
+          </cell>
+          <cell r="J4">
+            <v>24.795000000000002</v>
+          </cell>
+          <cell r="K4">
+            <v>32.85</v>
+          </cell>
+          <cell r="L4">
+            <v>34.325000000000003</v>
+          </cell>
+          <cell r="M4">
+            <v>32.840000000000003</v>
+          </cell>
+          <cell r="N4">
+            <v>29.5</v>
+          </cell>
+          <cell r="O4">
+            <v>29.5</v>
+          </cell>
+          <cell r="P4">
+            <v>30.984999999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>32.83</v>
+          </cell>
+          <cell r="R4">
+            <v>34.325000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>32.83</v>
+          </cell>
+          <cell r="T4">
+            <v>32.83</v>
+          </cell>
+          <cell r="U4">
+            <v>32.83</v>
+          </cell>
+          <cell r="V4">
+            <v>32.83</v>
+          </cell>
+          <cell r="W4">
+            <v>29.490000000000002</v>
+          </cell>
+          <cell r="X4">
+            <v>27.6</v>
+          </cell>
+          <cell r="Y4">
+            <v>27.085000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2748,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.5</v>
@@ -2797,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[2]Main!$B$4)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
         <v>1.0511401320407892</v>
       </c>
     </row>
@@ -2806,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[2]Main!$B$5)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
         <v>1.2189944199947571</v>
       </c>
     </row>
@@ -2815,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[2]Main!$B$6)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
         <v>1.2189944199947571</v>
       </c>
     </row>
@@ -2824,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>(1+[2]Main!$B$7)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
         <v>1.2189944199947571</v>
       </c>
     </row>
@@ -2833,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>(1+[2]Main!$B$8)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
         <v>1.2189944199947571</v>
       </c>
     </row>
@@ -2935,99 +2929,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
         <v>51.38467811751233</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
         <v>51.79100959084392</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
         <v>51.79100959084392</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
         <v>62.538477060464359</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
         <v>54.521557091632168</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
         <v>65.382797373785465</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
         <v>63.976890476058159</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
         <v>49.084841978455557</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
         <v>49.328640862454506</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
         <v>72.083203369023309</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
         <v>49.77560548311925</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
         <v>49.77560548311925</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
         <v>72.530167989688053</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
         <v>72.530167989688053</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
         <v>53.745463977568846</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
         <v>49.734972335786097</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
         <v>49.734972335786097</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
         <v>50.060037514451359</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
         <v>49.816238630452411</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
         <v>53.745463977568846</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
         <v>49.491173451787141</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
         <v>55.903084100959568</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
         <v>45.834190191802868</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
         <v>45.834190191802868</v>
       </c>
     </row>
@@ -3036,99 +3030,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
         <v>44.14791457747679</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
         <v>44.960577524139964</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
         <v>44.960577524139964</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
         <v>55.283428604128893</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
         <v>49.202678105721709</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
         <v>74.771086065111746</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
         <v>74.068132616248107</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
         <v>48.556611063124492</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
         <v>49.044208831122397</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
         <v>60.055791758408368</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
         <v>48.901992815456339</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
         <v>48.901992815456339</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
         <v>60.27927406874074</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
         <v>60.27927406874074</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
         <v>50.886922062681144</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
         <v>48.881676241789762</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
         <v>49.247374567788192</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
         <v>49.531806599120308</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
         <v>49.40990715712082</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
         <v>50.886922062681144</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
         <v>48.759776799790288</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
         <v>51.965732124376501</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
         <v>47.296983495796574</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
         <v>47.296983495796574</v>
       </c>
     </row>
@@ -3137,99 +3131,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
         <v>36.911151037441243</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
         <v>38.130145457436001</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
         <v>38.130145457436001</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
         <v>43.883799119811258</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
         <v>84.159374756438041</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
         <v>84.159374756438041</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
         <v>48.759776799790288</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
         <v>48.759776799790288</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
         <v>49.003575683789236</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
         <v>49.003575683789236</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
         <v>48.028380147793428</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
         <v>48.759776799790288</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
         <v>48.759776799790288</v>
       </c>
     </row>
@@ -3382,99 +3376,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
         <v>29.365575577673699</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
         <v>29.365575577673699</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
         <v>29.365575577673699</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
         <v>29.365575577673699</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
         <v>35.399597956647746</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
         <v>35.3874080124478</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
         <v>35.411787900847692</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
         <v>35.399597956647746</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
         <v>35.399597956647746</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
         <v>35.411787900847692</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
         <v>39.007821439832227</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
         <v>35.3874080124478</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
         <v>35.3874080124478</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
         <v>35.3874080124478</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
         <v>39.007821439832227</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
         <v>35.363028124047908</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
         <v>39.007821439832227</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
         <v>35.363028124047908</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
         <v>35.363028124047908</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
         <v>35.363028124047908</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
         <v>35.363028124047908</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
         <v>35.363028124047908</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
         <v>35.363028124047908</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
         <v>34.107463871453305</v>
       </c>
     </row>
@@ -3483,99 +3477,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
         <v>34.031276720203628</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
         <v>34.031276720203628</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
         <v>34.031276720203628</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
         <v>34.031276720203628</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
         <v>38.556793504434168</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
         <v>28.692081160626596</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
         <v>35.692156617446493</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
         <v>32.812282300208878</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
         <v>32.812282300208878</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
         <v>37.727877298837733</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
         <v>40.424902453076136</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
         <v>37.709592382537814</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
         <v>35.673871701146567</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
         <v>35.673871701146567</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
         <v>38.389181771684889</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
         <v>37.691307466237895</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
         <v>40.424902453076136</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
         <v>37.691307466237895</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
         <v>37.691307466237895</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
         <v>37.691307466237895</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
         <v>37.691307466237895</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
         <v>35.655586784846648</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
         <v>34.5036370579516</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
         <v>33.56196386850565</v>
       </c>
     </row>
@@ -3584,99 +3578,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
         <v>38.696977862733561</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
         <v>38.696977862733561</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
         <v>38.696977862733561</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
         <v>38.696977862733561</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
         <v>41.71398905222059</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
         <v>21.996754308805393</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
         <v>35.97252533404528</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
         <v>30.224966643770003</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
         <v>30.224966643770003</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
         <v>40.043966696827773</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
         <v>41.841983466320038</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
         <v>40.031776752627827</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
         <v>35.960335389845334</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
         <v>35.960335389845334</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
         <v>37.770542103537551</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
         <v>40.019586808427874</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
         <v>41.841983466320038</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
         <v>40.019586808427874</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
         <v>40.019586808427874</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
         <v>40.019586808427874</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
         <v>40.019586808427874</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
         <v>35.948145445645387</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
         <v>33.6442459918553</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
         <v>33.016463865557995</v>
       </c>
     </row>
@@ -3829,99 +3823,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B2*Scenarios!$B$6</f>
         <v>45.945335171502897</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C2*Scenarios!$B$6</f>
         <v>42.870750285283584</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D2*Scenarios!$B$6</f>
         <v>41.04965000652291</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E2*Scenarios!$B$6</f>
         <v>38.495379485663804</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F2*Scenarios!$B$6</f>
         <v>39.64375007991837</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G2*Scenarios!$B$6</f>
         <v>42.828704680001962</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H2*Scenarios!$B$6</f>
         <v>51.815952808950705</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I2*Scenarios!$B$6</f>
         <v>54.228319411984316</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J2*Scenarios!$B$6</f>
         <v>57.024352163212811</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K2*Scenarios!$B$6</f>
         <v>56.590756858745983</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L2*Scenarios!$B$6</f>
         <v>55.500198971753669</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M2*Scenarios!$B$6</f>
         <v>55.229530387753158</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N2*Scenarios!$B$6</f>
         <v>53.090460219050151</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O2*Scenarios!$B$6</f>
         <v>52.341522874971098</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P2*Scenarios!$B$6</f>
         <v>51.314033395901227</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q2*Scenarios!$B$6</f>
         <v>51.4165195587752</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R2*Scenarios!$B$6</f>
         <v>52.210130358465996</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S2*Scenarios!$B$6</f>
         <v>54.790679382626138</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T2*Scenarios!$B$6</f>
         <v>57.413274012067909</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U2*Scenarios!$B$6</f>
         <v>57.854752867525043</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V2*Scenarios!$B$6</f>
         <v>56.519804899833225</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W2*Scenarios!$B$6</f>
         <v>52.969579103865463</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X2*Scenarios!$B$6</f>
         <v>47.808481055545194</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y2*Scenarios!$B$6</f>
         <v>44.87317223682129</v>
       </c>
     </row>
@@ -3930,99 +3924,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B3*Scenarios!$B$6</f>
         <v>42.907540189905014</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C3*Scenarios!$B$6</f>
         <v>40.50042928753161</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D3*Scenarios!$B$6</f>
         <v>37.877834658089832</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E3*Scenarios!$B$6</f>
         <v>36.185499045504166</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F3*Scenarios!$B$6</f>
         <v>38.198432398362279</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G3*Scenarios!$B$6</f>
         <v>40.237644254521413</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H3*Scenarios!$B$6</f>
         <v>46.460393836202883</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I3*Scenarios!$B$6</f>
         <v>48.531139896323239</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J3*Scenarios!$B$6</f>
         <v>50.959273601337465</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K3*Scenarios!$B$6</f>
         <v>51.300894144250712</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L3*Scenarios!$B$6</f>
         <v>49.824042258733414</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M3*Scenarios!$B$6</f>
         <v>48.799180629993636</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N3*Scenarios!$B$6</f>
         <v>47.306561642495708</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O3*Scenarios!$B$6</f>
         <v>46.807270079776345</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P3*Scenarios!$B$6</f>
         <v>44.720756917675374</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q3*Scenarios!$B$6</f>
         <v>44.368624973441712</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R3*Scenarios!$B$6</f>
         <v>45.283116888317196</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S3*Scenarios!$B$6</f>
         <v>49.929156271937487</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T3*Scenarios!$B$6</f>
         <v>52.273198766388447</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U3*Scenarios!$B$6</f>
         <v>53.093088069380265</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V3*Scenarios!$B$6</f>
         <v>53.387407306351683</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W3*Scenarios!$B$6</f>
         <v>51.017086308599701</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X3*Scenarios!$B$6</f>
         <v>46.202864503852886</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y3*Scenarios!$B$6</f>
         <v>43.843054907421319</v>
       </c>
     </row>
@@ -4031,99 +4025,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B4*Scenarios!$B$6</f>
         <v>48.983130153100774</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C4*Scenarios!$B$6</f>
         <v>45.241071283035566</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D4*Scenarios!$B$6</f>
         <v>44.221465354956003</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E4*Scenarios!$B$6</f>
         <v>40.805259925823435</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F4*Scenarios!$B$6</f>
         <v>41.089067761474453</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G4*Scenarios!$B$6</f>
         <v>45.419765105482497</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H4*Scenarios!$B$6</f>
         <v>57.17151178169852</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I4*Scenarios!$B$6</f>
         <v>59.925498927645386</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J4*Scenarios!$B$6</f>
         <v>63.089430725088171</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K4*Scenarios!$B$6</f>
         <v>61.880619573241255</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L4*Scenarios!$B$6</f>
         <v>61.176355684773931</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M4*Scenarios!$B$6</f>
         <v>61.659880145512687</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N4*Scenarios!$B$6</f>
         <v>58.8743587956046</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O4*Scenarios!$B$6</f>
         <v>57.875775670165851</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P4*Scenarios!$B$6</f>
         <v>57.90730987412708</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q4*Scenarios!$B$6</f>
         <v>58.464414144108687</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R4*Scenarios!$B$6</f>
         <v>59.137143828614796</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S4*Scenarios!$B$6</f>
         <v>59.652202493314782</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T4*Scenarios!$B$6</f>
         <v>62.553349257747364</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U4*Scenarios!$B$6</f>
         <v>62.616417665669807</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V4*Scenarios!$B$6</f>
         <v>59.652202493314782</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W4*Scenarios!$B$6</f>
         <v>54.922071899131232</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X4*Scenarios!$B$6</f>
         <v>49.414097607237494</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y4*Scenarios!$B$6</f>
         <v>45.903289566221261</v>
       </c>
     </row>
@@ -4277,99 +4271,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B2*Scenarios!$B$6</f>
         <v>55.134402205803468</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C2*Scenarios!$B$6</f>
         <v>51.444900342340297</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D2*Scenarios!$B$6</f>
         <v>49.259580007827502</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E2*Scenarios!$B$6</f>
         <v>46.194455382796562</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F2*Scenarios!$B$6</f>
         <v>47.572500095902036</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G2*Scenarios!$B$6</f>
         <v>51.394445616002351</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H2*Scenarios!$B$6</f>
         <v>62.179143370740832</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I2*Scenarios!$B$6</f>
         <v>65.073983294381179</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J2*Scenarios!$B$6</f>
         <v>68.429222595855364</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K2*Scenarios!$B$6</f>
         <v>67.908908230495172</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L2*Scenarios!$B$6</f>
         <v>66.600238766104411</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M2*Scenarios!$B$6</f>
         <v>66.275436465303798</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N2*Scenarios!$B$6</f>
         <v>63.708552262860174</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O2*Scenarios!$B$6</f>
         <v>62.809827449965304</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P2*Scenarios!$B$6</f>
         <v>61.576840075081471</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
         <v>61.699823470530234</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R2*Scenarios!$B$6</f>
         <v>62.652156430159188</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S2*Scenarios!$B$6</f>
         <v>65.748815259151357</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T2*Scenarios!$B$6</f>
         <v>68.895928814481479</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U2*Scenarios!$B$6</f>
         <v>69.425703441030038</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V2*Scenarios!$B$6</f>
         <v>67.823765879799879</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W2*Scenarios!$B$6</f>
         <v>63.563494924638562</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X2*Scenarios!$B$6</f>
         <v>57.370177266654224</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
         <v>53.847806684185542</v>
       </c>
     </row>
@@ -4378,99 +4372,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B3*Scenarios!$B$6</f>
         <v>55.134402205803468</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C3*Scenarios!$B$6</f>
         <v>51.444900342340297</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D3*Scenarios!$B$6</f>
         <v>49.259580007827502</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E3*Scenarios!$B$6</f>
         <v>46.194455382796562</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F3*Scenarios!$B$6</f>
         <v>47.572500095902036</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G3*Scenarios!$B$6</f>
         <v>51.394445616002351</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H3*Scenarios!$B$6</f>
         <v>62.179143370740832</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I3*Scenarios!$B$6</f>
         <v>65.073983294381179</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J3*Scenarios!$B$6</f>
         <v>68.429222595855364</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K3*Scenarios!$B$6</f>
         <v>67.908908230495172</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L3*Scenarios!$B$6</f>
         <v>66.600238766104411</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M3*Scenarios!$B$6</f>
         <v>66.275436465303798</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N3*Scenarios!$B$6</f>
         <v>63.708552262860174</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O3*Scenarios!$B$6</f>
         <v>62.809827449965304</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P3*Scenarios!$B$6</f>
         <v>61.576840075081471</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
         <v>61.699823470530234</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R3*Scenarios!$B$6</f>
         <v>62.652156430159188</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S3*Scenarios!$B$6</f>
         <v>65.748815259151357</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T3*Scenarios!$B$6</f>
         <v>68.895928814481479</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U3*Scenarios!$B$6</f>
         <v>69.425703441030038</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V3*Scenarios!$B$6</f>
         <v>67.823765879799879</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W3*Scenarios!$B$6</f>
         <v>63.563494924638562</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X3*Scenarios!$B$6</f>
         <v>57.370177266654224</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
         <v>53.847806684185542</v>
       </c>
     </row>
@@ -4479,99 +4473,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B4*Scenarios!$B$6</f>
         <v>55.134402205803468</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C4*Scenarios!$B$6</f>
         <v>51.444900342340297</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D4*Scenarios!$B$6</f>
         <v>49.259580007827502</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E4*Scenarios!$B$6</f>
         <v>46.194455382796562</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F4*Scenarios!$B$6</f>
         <v>47.572500095902036</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G4*Scenarios!$B$6</f>
         <v>51.394445616002351</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H4*Scenarios!$B$6</f>
         <v>62.179143370740832</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I4*Scenarios!$B$6</f>
         <v>65.073983294381179</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J4*Scenarios!$B$6</f>
         <v>68.429222595855364</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K4*Scenarios!$B$6</f>
         <v>67.908908230495172</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L4*Scenarios!$B$6</f>
         <v>66.600238766104411</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M4*Scenarios!$B$6</f>
         <v>66.275436465303798</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N4*Scenarios!$B$6</f>
         <v>63.708552262860174</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O4*Scenarios!$B$6</f>
         <v>62.809827449965304</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P4*Scenarios!$B$6</f>
         <v>61.576840075081471</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
         <v>61.699823470530234</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R4*Scenarios!$B$6</f>
         <v>62.652156430159188</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S4*Scenarios!$B$6</f>
         <v>65.748815259151357</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T4*Scenarios!$B$6</f>
         <v>68.895928814481479</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U4*Scenarios!$B$6</f>
         <v>69.425703441030038</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V4*Scenarios!$B$6</f>
         <v>67.823765879799879</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W4*Scenarios!$B$6</f>
         <v>63.563494924638562</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X4*Scenarios!$B$6</f>
         <v>57.370177266654224</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
         <v>53.847806684185542</v>
       </c>
     </row>
@@ -4725,99 +4719,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
         <v>30.892091814972634</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
         <v>29.980991005580151</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
         <v>33.838331235920812</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
         <v>37.239974782234832</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
         <v>39.160201837303674</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
         <v>35.791547327480764</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
         <v>33.155673028321402</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
         <v>35.904429258258325</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
         <v>31.397456426641959</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
         <v>28.466213684545767</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
         <v>28.011028978175524</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
         <v>24.70836168379298</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
         <v>27.488080371997768</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
         <v>22.848100011729731</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
         <v>23.884976665377266</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
         <v>19.714126307644207</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
         <v>15.552281271188862</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
         <v>18.127836678960829</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
         <v>12.294607060848321</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
         <v>10.6951218175685</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
         <v>11.993631243579516</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
         <v>16.751116570962953</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
         <v>19.646932287728049</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
         <v>17.352641557453566</v>
       </c>
     </row>
@@ -4826,99 +4820,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
         <v>24.794346502693358</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
         <v>26.074290643687856</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
         <v>35.701299075596445</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
         <v>40.47366222987592</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
         <v>44.048363366510543</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
         <v>43.783232080161696</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
         <v>43.481530961212989</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
         <v>45.575153877553987</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
         <v>42.421005815817544</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
         <v>36.661257181342322</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
         <v>37.703497410437834</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
         <v>30.837511339817368</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
         <v>35.143609128448844</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
         <v>26.220569974087223</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
         <v>27.610223612881246</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
         <v>24.794346502693358</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
         <v>16.630131374778475</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
         <v>20.735095084110817</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
         <v>13.549122978241725</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
         <v>11.885195594948883</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
         <v>13.265706775592944</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
         <v>15.578748687532995</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
         <v>16.648416291078394</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
         <v>12.799441409944949</v>
       </c>
     </row>
@@ -4927,99 +4921,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
         <v>34.047733144873554</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
         <v>32.141225872001755</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
         <v>34.068456050013474</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
         <v>34.006287334593736</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
         <v>35.063155496729195</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
         <v>29.260742057554147</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
         <v>25.592787847789921</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
         <v>24.142184487996165</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
         <v>21.655435871206855</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
         <v>19.707482788055234</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
         <v>16.16386600913048</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
         <v>16.22603472455021</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
         <v>17.718083894623796</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
         <v>17.718083894623796</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
         <v>19.686759882915325</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
         <v>15.438564329233598</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
         <v>12.993261522724115</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
         <v>14.464587787657788</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
         <v>10.796633577893562</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
         <v>10.630850336774277</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
         <v>11.21109168069178</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
         <v>19.686759882915325</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
         <v>22.256400120264274</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
         <v>22.256400120264274</v>
       </c>
     </row>
@@ -5198,99 +5192,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
         <v>60.961910943937802</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
         <v>54.854748899764068</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
         <v>59.730726579743099</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
         <v>45.480681810004391</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
         <v>45.480681810004391</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
         <v>58.511732159748341</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
         <v>60.961910943937802</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
         <v>60.961910943937802</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
         <v>58.511732159748341</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
         <v>57.146458409354217</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
         <v>58.365452829348975</v>
       </c>
     </row>
@@ -5299,99 +5293,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
         <v>58.109464001150073</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
         <v>39.544178984629916</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
         <v>39.544178984629916</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
         <v>39.544178984629916</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
         <v>39.544178984629916</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
         <v>39.544178984629916</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
         <v>39.544178984629916</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
         <v>39.544178984629916</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
         <v>58.109464001150073</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
         <v>44.420156664608946</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
         <v>45.639151084603704</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
         <v>45.639151084603704</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
         <v>45.639151084603704</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
         <v>45.639151084603704</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
         <v>45.639151084603704</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
         <v>49.600882949586662</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
         <v>58.109464001150073</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
         <v>54.123352247767215</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
         <v>54.123352247767215</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
         <v>54.123352247767215</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
         <v>54.123352247767215</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
         <v>58.109464001150073</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
         <v>58.109464001150073</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
         <v>54.854748899764068</v>
       </c>
     </row>
@@ -5400,99 +5394,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
         <v>69.470491995501206</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
         <v>69.470491995501206</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
         <v>69.470491995501206</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
         <v>69.470491995501206</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
         <v>73.078715478685695</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
         <v>73.078715478685695</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
         <v>73.078715478685695</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
         <v>73.078715478685695</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
         <v>73.078715478685695</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
         <v>67.044693099711637</v>
       </c>
     </row>
@@ -5645,99 +5639,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
         <v>31.65728508726384</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
         <v>31.65728508726384</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
         <v>30.487050444068878</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
         <v>30.438290667269083</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
         <v>36.265083994844026</v>
       </c>
     </row>
@@ -5746,99 +5740,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
         <v>34.57068175105131</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
         <v>34.57068175105131</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
         <v>33.199313028557206</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
         <v>35.180178961048689</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
         <v>35.180178961048689</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
         <v>34.57068175105131</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
         <v>45.49896672630431</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
         <v>37.484078414838784</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
         <v>39.592938761429714</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
         <v>42.518525369417119</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
         <v>39.605128705629653</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
         <v>39.605128705629653</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
         <v>39.592938761429714</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
         <v>39.617318649829606</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
         <v>39.592938761429714</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
         <v>39.592938761429714</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
         <v>42.524620341517107</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
         <v>44.950419237306669</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
         <v>44.950419237306669</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
         <v>44.950419237306669</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
         <v>44.950419237306669</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
         <v>43.115832635214566</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
         <v>37.484078414838784</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
         <v>37.484078414838784</v>
       </c>
     </row>
@@ -5847,99 +5841,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
         <v>38.703072834833542</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
         <v>38.703072834833542</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
         <v>35.960335389845334</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
         <v>38.703072834833542</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
         <v>38.703072834833542</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
         <v>38.703072834833542</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
         <v>54.732849457764594</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
         <v>38.703072834833542</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
         <v>48.747586855590342</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
         <v>48.771966743990227</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
         <v>48.771966743990227</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
         <v>48.771966743990227</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
         <v>48.747586855590342</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
         <v>48.747586855590342</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
         <v>48.747586855590342</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
         <v>48.747586855590342</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
         <v>48.78415668819018</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
         <v>53.635754479769311</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
         <v>53.635754479769311</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
         <v>53.635754479769311</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
         <v>53.635754479769311</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
         <v>49.966581275585099</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
         <v>38.703072834833542</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
         <v>38.703072834833542</v>
       </c>
     </row>
@@ -6092,99 +6086,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B2*Scenarios!$B$6</f>
         <v>39.175992721160213</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C2*Scenarios!$B$6</f>
         <v>35.749275890707239</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D2*Scenarios!$B$6</f>
         <v>34.235634100568504</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E2*Scenarios!$B$6</f>
         <v>33.615461422664438</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F2*Scenarios!$B$6</f>
         <v>33.773132442470555</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G2*Scenarios!$B$6</f>
         <v>38.229966602323501</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H2*Scenarios!$B$6</f>
         <v>39.848722405666315</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I2*Scenarios!$B$6</f>
         <v>39.848722405666315</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J2*Scenarios!$B$6</f>
         <v>41.877422860505042</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K2*Scenarios!$B$6</f>
         <v>41.982536873709115</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L2*Scenarios!$B$6</f>
         <v>41.877422860505042</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M2*Scenarios!$B$6</f>
         <v>42.056116682951973</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N2*Scenarios!$B$6</f>
         <v>41.456966807688723</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O2*Scenarios!$B$6</f>
         <v>41.194181774678526</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P2*Scenarios!$B$6</f>
         <v>40.332246866405079</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q2*Scenarios!$B$6</f>
         <v>39.091901510596948</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R2*Scenarios!$B$6</f>
         <v>36.768881818786802</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S2*Scenarios!$B$6</f>
         <v>39.281106734364286</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T2*Scenarios!$B$6</f>
         <v>40.784237123182614</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U2*Scenarios!$B$6</f>
         <v>41.940491268427486</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V2*Scenarios!$B$6</f>
         <v>41.03651075487241</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W2*Scenarios!$B$6</f>
         <v>41.877422860505042</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X2*Scenarios!$B$6</f>
         <v>41.793331649941777</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y2*Scenarios!$B$6</f>
         <v>40.090484636035697</v>
       </c>
     </row>
@@ -6193,99 +6187,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B3*Scenarios!$B$6</f>
         <v>41.709240439378512</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C3*Scenarios!$B$6</f>
         <v>36.789904621427624</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D3*Scenarios!$B$6</f>
         <v>40.153553043958148</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E3*Scenarios!$B$6</f>
         <v>38.787070872305115</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F3*Scenarios!$B$6</f>
         <v>39.533380366054082</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G3*Scenarios!$B$6</f>
         <v>40.153553043958148</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H3*Scenarios!$B$6</f>
         <v>39.112924313237762</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I3*Scenarios!$B$6</f>
         <v>42.234810505398904</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J3*Scenarios!$B$6</f>
         <v>45.030843256627413</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K3*Scenarios!$B$6</f>
         <v>45.230559881715159</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L3*Scenarios!$B$6</f>
         <v>45.672038737172294</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M3*Scenarios!$B$6</f>
         <v>46.533973645445741</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N3*Scenarios!$B$6</f>
         <v>47.269771737874287</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O3*Scenarios!$B$6</f>
         <v>48.49960569236201</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P3*Scenarios!$B$6</f>
         <v>46.660110461290628</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q3*Scenarios!$B$6</f>
         <v>45.209537079074337</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R3*Scenarios!$B$6</f>
         <v>45.051866059268221</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S3*Scenarios!$B$6</f>
         <v>45.966357974143705</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T3*Scenarios!$B$6</f>
         <v>46.218631605833501</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U3*Scenarios!$B$6</f>
         <v>47.196191928631428</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V3*Scenarios!$B$6</f>
         <v>47.774319001253872</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W3*Scenarios!$B$6</f>
         <v>48.510117093682418</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X3*Scenarios!$B$6</f>
         <v>47.269771737874287</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y3*Scenarios!$B$6</f>
         <v>44.673455611733537</v>
       </c>
     </row>
@@ -6294,99 +6288,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B4*Scenarios!$B$6</f>
         <v>35.097569008841951</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C4*Scenarios!$B$6</f>
         <v>32.396138869497122</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D4*Scenarios!$B$6</f>
         <v>30.367438414658398</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E4*Scenarios!$B$6</f>
         <v>29.883913953919635</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F4*Scenarios!$B$6</f>
         <v>30.914031283319609</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G4*Scenarios!$B$6</f>
         <v>36.148709140882737</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H4*Scenarios!$B$6</f>
         <v>47.553579573525305</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I4*Scenarios!$B$6</f>
         <v>45.114934467190672</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J4*Scenarios!$B$6</f>
         <v>47.175169125990621</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K4*Scenarios!$B$6</f>
         <v>46.565507849406956</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L4*Scenarios!$B$6</f>
         <v>43.159813821594803</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M4*Scenarios!$B$6</f>
         <v>41.940491268427486</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N4*Scenarios!$B$6</f>
         <v>46.439371033562061</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O4*Scenarios!$B$6</f>
         <v>47.490511165602854</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P4*Scenarios!$B$6</f>
         <v>47.175169125990621</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q4*Scenarios!$B$6</f>
         <v>46.618064856008999</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R4*Scenarios!$B$6</f>
         <v>46.618064856008999</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S4*Scenarios!$B$6</f>
         <v>47.175169125990621</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T4*Scenarios!$B$6</f>
         <v>48.541651297643639</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U4*Scenarios!$B$6</f>
         <v>50.328589522112985</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V4*Scenarios!$B$6</f>
         <v>53.797351957847589</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W4*Scenarios!$B$6</f>
         <v>58.537993953351545</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X4*Scenarios!$B$6</f>
         <v>53.366384503710869</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y4*Scenarios!$B$6</f>
         <v>47.301305941835508</v>
       </c>
     </row>
@@ -6540,99 +6534,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B2*Scenarios!$B$6</f>
         <v>46.393120867752273</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C2*Scenarios!$B$6</f>
         <v>41.974127752652784</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D2*Scenarios!$B$6</f>
         <v>41.902650223674023</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E2*Scenarios!$B$6</f>
         <v>40.914578499555674</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F2*Scenarios!$B$6</f>
         <v>41.688217636737704</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G2*Scenarios!$B$6</f>
         <v>45.812891514865747</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H2*Scenarios!$B$6</f>
         <v>50.606090516971761</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I2*Scenarios!$B$6</f>
         <v>50.879386951302351</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J2*Scenarios!$B$6</f>
         <v>53.633374097249224</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K2*Scenarios!$B$6</f>
         <v>53.511441841932488</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L2*Scenarios!$B$6</f>
         <v>52.283710167708854</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M2*Scenarios!$B$6</f>
         <v>52.212232638730086</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N2*Scenarios!$B$6</f>
         <v>54.066443831650034</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O2*Scenarios!$B$6</f>
         <v>54.873719453057348</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P2*Scenarios!$B$6</f>
         <v>53.667010581474521</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
         <v>52.367801378272098</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R2*Scenarios!$B$6</f>
         <v>51.375525093625612</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S2*Scenarios!$B$6</f>
         <v>52.969053533799446</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T2*Scenarios!$B$6</f>
         <v>54.217808010663894</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U2*Scenarios!$B$6</f>
         <v>55.786109087668756</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V2*Scenarios!$B$6</f>
         <v>57.04327268558955</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W2*Scenarios!$B$6</f>
         <v>59.570213563015599</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X2*Scenarios!$B$6</f>
         <v>56.971795156610767</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
         <v>52.826098475841903</v>
       </c>
     </row>
@@ -6641,99 +6635,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B3*Scenarios!$B$6</f>
         <v>46.393120867752273</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C3*Scenarios!$B$6</f>
         <v>41.974127752652784</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D3*Scenarios!$B$6</f>
         <v>41.902650223674023</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E3*Scenarios!$B$6</f>
         <v>40.914578499555674</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F3*Scenarios!$B$6</f>
         <v>41.688217636737704</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G3*Scenarios!$B$6</f>
         <v>45.812891514865747</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H3*Scenarios!$B$6</f>
         <v>50.606090516971761</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I3*Scenarios!$B$6</f>
         <v>50.879386951302351</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J3*Scenarios!$B$6</f>
         <v>53.633374097249224</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K3*Scenarios!$B$6</f>
         <v>53.511441841932488</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L3*Scenarios!$B$6</f>
         <v>52.283710167708854</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M3*Scenarios!$B$6</f>
         <v>52.212232638730086</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N3*Scenarios!$B$6</f>
         <v>54.066443831650034</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O3*Scenarios!$B$6</f>
         <v>54.873719453057348</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P3*Scenarios!$B$6</f>
         <v>53.667010581474521</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
         <v>52.367801378272098</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R3*Scenarios!$B$6</f>
         <v>51.375525093625612</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S3*Scenarios!$B$6</f>
         <v>52.969053533799446</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T3*Scenarios!$B$6</f>
         <v>54.217808010663894</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U3*Scenarios!$B$6</f>
         <v>55.786109087668756</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V3*Scenarios!$B$6</f>
         <v>57.04327268558955</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W3*Scenarios!$B$6</f>
         <v>59.570213563015599</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X3*Scenarios!$B$6</f>
         <v>56.971795156610767</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
         <v>52.826098475841903</v>
       </c>
     </row>
@@ -6742,99 +6736,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B4*Scenarios!$B$6</f>
         <v>46.393120867752273</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C4*Scenarios!$B$6</f>
         <v>41.974127752652784</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D4*Scenarios!$B$6</f>
         <v>41.902650223674023</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E4*Scenarios!$B$6</f>
         <v>40.914578499555674</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F4*Scenarios!$B$6</f>
         <v>41.688217636737704</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G4*Scenarios!$B$6</f>
         <v>45.812891514865747</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H4*Scenarios!$B$6</f>
         <v>50.606090516971761</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I4*Scenarios!$B$6</f>
         <v>50.879386951302351</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J4*Scenarios!$B$6</f>
         <v>53.633374097249224</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K4*Scenarios!$B$6</f>
         <v>53.511441841932488</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L4*Scenarios!$B$6</f>
         <v>52.283710167708854</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M4*Scenarios!$B$6</f>
         <v>52.212232638730086</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N4*Scenarios!$B$6</f>
         <v>54.066443831650034</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O4*Scenarios!$B$6</f>
         <v>54.873719453057348</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P4*Scenarios!$B$6</f>
         <v>53.667010581474521</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
         <v>52.367801378272098</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R4*Scenarios!$B$6</f>
         <v>51.375525093625612</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S4*Scenarios!$B$6</f>
         <v>52.969053533799446</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T4*Scenarios!$B$6</f>
         <v>54.217808010663894</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U4*Scenarios!$B$6</f>
         <v>55.786109087668756</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V4*Scenarios!$B$6</f>
         <v>57.04327268558955</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W4*Scenarios!$B$6</f>
         <v>59.570213563015599</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X4*Scenarios!$B$6</f>
         <v>56.971795156610767</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
         <v>52.826098475841903</v>
       </c>
     </row>
@@ -6988,99 +6982,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
         <v>12.506882749146207</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
         <v>13.298619624932805</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
         <v>12.293375876484125</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
         <v>10.696676035453994</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
         <v>9.7017327898542725</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
         <v>7.7175146227078066</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
         <v>6.9566792554680807</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
         <v>5.9645396970343461</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
         <v>4.903892652196908</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
         <v>5.4708469569364695</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
         <v>5.1470210892648636</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
         <v>4.9297962836217968</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
         <v>4.4798044934807324</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
         <v>5.1090494130820261</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
         <v>5.4726144988454628</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
         <v>4.8693341603900571</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
         <v>3.6277273939043977</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
         <v>3.1216009107225742</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
         <v>3.6741710813061981</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
         <v>2.7058019140623619</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
         <v>4.4388462809689084</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
         <v>8.2678906033354398</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
         <v>9.2292505526643041</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
         <v>8.4129509393148147</v>
       </c>
     </row>
@@ -7089,99 +7083,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
         <v>9.7519553599580568</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
         <v>9.7397654157581091</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
         <v>9.4593966991593152</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
         <v>9.7519553599580568</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
         <v>13.408938619942328</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
         <v>10.398022402555277</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
         <v>7.8503240647662365</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
         <v>5.7414637181753063</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
         <v>5.6927039413755152</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
         <v>6.8995084171703258</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
         <v>5.8389832717748869</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
         <v>6.1924916535733665</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
         <v>4.9613072893786621</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
         <v>5.4123352247767222</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
         <v>6.4241005933723692</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
         <v>5.6439441645757249</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
         <v>5.3757653921768789</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
         <v>4.2542905257817027</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
         <v>5.4123352247767222</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
         <v>2.8036871659879412</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
         <v>6.0584022673739426</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
         <v>10.446782179355068</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
         <v>10.056703964956746</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
         <v>8.3257318885641904</v>
       </c>
     </row>
@@ -7190,99 +7184,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
         <v>15.261810138334358</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
         <v>15.590938631732943</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
         <v>14.883921868135985</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
         <v>11.64139671094993</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
         <v>5.8024134391750435</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
         <v>5.1929162291776647</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
         <v>5.7902234949750966</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
         <v>5.6195642761758302</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
         <v>4.3152402467814399</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
         <v>4.4980894097806541</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
         <v>4.5590391307803921</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
         <v>3.7666927577837992</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
         <v>4.1811508605820169</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
         <v>4.4127598003810204</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
         <v>4.4127598003810204</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
         <v>3.9983016975828032</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
         <v>2.1820000117906151</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
         <v>2.1820000117906151</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
         <v>1.791921797392293</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
         <v>2.7183575565883085</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
         <v>2.6452178913886226</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
         <v>5.6073743319758824</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
         <v>7.691854790166917</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
         <v>9.0205587079612037</v>
       </c>
     </row>

--- a/data/CS2/Market Data/CS2_market_data_2030.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C856E16E-5D36-482F-924A-B54F96830E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B345A9C3-79F8-416C-B0C1-965C98CB56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24525" yWindow="5070" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22845" yWindow="5520" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,16 +2755,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS2/Market Data/CS2_market_data_2030.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B345A9C3-79F8-416C-B0C1-965C98CB56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EEA16F-F4DF-4616-9D4C-AB8EA2396B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22845" yWindow="5520" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2030.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EEA16F-F4DF-4616-9D4C-AB8EA2396B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D169C9E-317F-42C9-BD9F-B14748024FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2030.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D169C9E-317F-42C9-BD9F-B14748024FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DEB9D4-0D42-47CD-919A-417E3F2C75FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
